--- a/src/data/raw/TECHM.NS_data.xlsx
+++ b/src/data/raw/TECHM.NS_data.xlsx
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>949.0336303710938</v>
+        <v>949.03369140625</v>
       </c>
       <c r="C4" t="n">
-        <v>961.510354010721</v>
+        <v>961.5104158482922</v>
       </c>
       <c r="D4" t="n">
-        <v>942.3261589499866</v>
+        <v>942.3262195537656</v>
       </c>
       <c r="E4" t="n">
-        <v>957.8048862995882</v>
+        <v>957.8049478988497</v>
       </c>
       <c r="F4" t="n">
         <v>1376035</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>925.112060546875</v>
+        <v>925.1119384765625</v>
       </c>
       <c r="C5" t="n">
-        <v>949.0337326656401</v>
+        <v>949.0336074388169</v>
       </c>
       <c r="D5" t="n">
-        <v>924.0332171366092</v>
+        <v>924.0330952086521</v>
       </c>
       <c r="E5" t="n">
-        <v>947.016784466403</v>
+        <v>947.0166595057201</v>
       </c>
       <c r="F5" t="n">
         <v>2346808</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>944.0616455078125</v>
+        <v>944.0617065429688</v>
       </c>
       <c r="C8" t="n">
-        <v>954.0055897197914</v>
+        <v>954.0056513978401</v>
       </c>
       <c r="D8" t="n">
-        <v>941.1535438297753</v>
+        <v>941.1536046769179</v>
       </c>
       <c r="E8" t="n">
-        <v>946.0316997396736</v>
+        <v>946.0317609021972</v>
       </c>
       <c r="F8" t="n">
         <v>1294200</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>941.059814453125</v>
+        <v>941.0597534179688</v>
       </c>
       <c r="C10" t="n">
-        <v>946.5477044052518</v>
+        <v>946.5476430141625</v>
       </c>
       <c r="D10" t="n">
-        <v>925.2527148665633</v>
+        <v>925.2526548566223</v>
       </c>
       <c r="E10" t="n">
-        <v>942.2793391916675</v>
+        <v>942.2792780774155</v>
       </c>
       <c r="F10" t="n">
         <v>2837817</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>983.4620361328125</v>
+        <v>983.4620971679688</v>
       </c>
       <c r="C13" t="n">
-        <v>986.4170888311163</v>
+        <v>986.4171500496676</v>
       </c>
       <c r="D13" t="n">
-        <v>978.9122512556061</v>
+        <v>978.9123120083958</v>
       </c>
       <c r="E13" t="n">
-        <v>981.3044640386934</v>
+        <v>981.3045249399474</v>
       </c>
       <c r="F13" t="n">
         <v>1138627</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>988.1057739257812</v>
+        <v>988.105712890625</v>
       </c>
       <c r="C14" t="n">
-        <v>988.762401441526</v>
+        <v>988.7623403658099</v>
       </c>
       <c r="D14" t="n">
-        <v>975.7227225802885</v>
+        <v>975.7226623100316</v>
       </c>
       <c r="E14" t="n">
-        <v>979.2875664179469</v>
+        <v>979.2875059274901</v>
       </c>
       <c r="F14" t="n">
         <v>1768051</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>981.7266235351562</v>
+        <v>981.7266845703125</v>
       </c>
       <c r="C15" t="n">
-        <v>992.0457758131178</v>
+        <v>992.0458374898285</v>
       </c>
       <c r="D15" t="n">
-        <v>977.3644135328881</v>
+        <v>977.3644742968404</v>
       </c>
       <c r="E15" t="n">
-        <v>987.355252050408</v>
+        <v>987.355313435503</v>
       </c>
       <c r="F15" t="n">
         <v>1160517</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>999.3630981445312</v>
+        <v>999.3629760742188</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.396880111602</v>
+        <v>1003.39675754857</v>
       </c>
       <c r="D16" t="n">
-        <v>982.4302605478576</v>
+        <v>982.4301405458593</v>
       </c>
       <c r="E16" t="n">
-        <v>988.2934156000649</v>
+        <v>988.2932948818933</v>
       </c>
       <c r="F16" t="n">
         <v>1344952</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>1004.3349609375</v>
+        <v>1004.334838867188</v>
       </c>
       <c r="C17" t="n">
-        <v>1010.620331712227</v>
+        <v>1010.620208877969</v>
       </c>
       <c r="D17" t="n">
-        <v>999.3630742807999</v>
+        <v>999.3629528147875</v>
       </c>
       <c r="E17" t="n">
-        <v>1003.772120968878</v>
+        <v>1003.771998966975</v>
       </c>
       <c r="F17" t="n">
         <v>1578750</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>966.3416137695312</v>
+        <v>966.3416748046875</v>
       </c>
       <c r="C19" t="n">
-        <v>992.1864436646647</v>
+        <v>992.1865063322076</v>
       </c>
       <c r="D19" t="n">
-        <v>958.2739363760178</v>
+        <v>958.273996901611</v>
       </c>
       <c r="E19" t="n">
-        <v>985.9480246022464</v>
+        <v>985.9480868757643</v>
       </c>
       <c r="F19" t="n">
         <v>1651820</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>971.9703369140625</v>
+        <v>971.97021484375</v>
       </c>
       <c r="C20" t="n">
-        <v>983.0868556227648</v>
+        <v>983.0867321563223</v>
       </c>
       <c r="D20" t="n">
-        <v>955.365928160785</v>
+        <v>955.3658081758297</v>
       </c>
       <c r="E20" t="n">
-        <v>966.3417082499354</v>
+        <v>966.3415868865255</v>
       </c>
       <c r="F20" t="n">
         <v>2654212</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>952.1763305664062</v>
+        <v>952.17626953125</v>
       </c>
       <c r="C21" t="n">
-        <v>965.1690585780834</v>
+        <v>965.1689967100843</v>
       </c>
       <c r="D21" t="n">
-        <v>934.3992339284953</v>
+        <v>934.3991740328631</v>
       </c>
       <c r="E21" t="n">
-        <v>961.5573781581935</v>
+        <v>961.5573165217056</v>
       </c>
       <c r="F21" t="n">
         <v>5797831</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>953.7242431640625</v>
+        <v>953.7241821289062</v>
       </c>
       <c r="C23" t="n">
-        <v>979.6159120716748</v>
+        <v>979.6158493795384</v>
       </c>
       <c r="D23" t="n">
-        <v>948.5177158527807</v>
+        <v>948.5176551508247</v>
       </c>
       <c r="E23" t="n">
-        <v>963.715081928695</v>
+        <v>963.7150202541585</v>
       </c>
       <c r="F23" t="n">
         <v>3860090</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>943.12353515625</v>
+        <v>943.1235961914062</v>
       </c>
       <c r="C25" t="n">
-        <v>953.4896378742179</v>
+        <v>953.4896995802266</v>
       </c>
       <c r="D25" t="n">
-        <v>935.2903838315204</v>
+        <v>935.2904443597467</v>
       </c>
       <c r="E25" t="n">
-        <v>943.7333261128482</v>
+        <v>943.7333871874677</v>
       </c>
       <c r="F25" t="n">
         <v>2003960</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>940.4031372070312</v>
+        <v>940.403076171875</v>
       </c>
       <c r="C26" t="n">
-        <v>946.0317658214592</v>
+        <v>946.0317044209871</v>
       </c>
       <c r="D26" t="n">
-        <v>935.2904547641182</v>
+        <v>935.2903940607914</v>
       </c>
       <c r="E26" t="n">
-        <v>942.7952929166889</v>
+        <v>942.7952317262741</v>
       </c>
       <c r="F26" t="n">
         <v>1697633</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>948.4708251953125</v>
+        <v>948.4707641601562</v>
       </c>
       <c r="C27" t="n">
-        <v>957.9457178160256</v>
+        <v>957.9456561711494</v>
       </c>
       <c r="D27" t="n">
-        <v>942.1855117256061</v>
+        <v>942.1854510949169</v>
       </c>
       <c r="E27" t="n">
-        <v>945.1405646819028</v>
+        <v>945.1405038610525</v>
       </c>
       <c r="F27" t="n">
         <v>2611176</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>954.380859375</v>
+        <v>954.3807983398438</v>
       </c>
       <c r="C29" t="n">
-        <v>958.3678046246007</v>
+        <v>958.3677433344689</v>
       </c>
       <c r="D29" t="n">
-        <v>941.9509712438919</v>
+        <v>941.9509110036596</v>
       </c>
       <c r="E29" t="n">
-        <v>948.939863191725</v>
+        <v>948.9398025045347</v>
       </c>
       <c r="F29" t="n">
         <v>1116554</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>940.449951171875</v>
+        <v>940.4500122070312</v>
       </c>
       <c r="C30" t="n">
-        <v>954.8029414689599</v>
+        <v>954.8030034356246</v>
       </c>
       <c r="D30" t="n">
-        <v>938.5737417929785</v>
+        <v>938.5738027063688</v>
       </c>
       <c r="E30" t="n">
-        <v>952.1762597899781</v>
+        <v>952.1763215861713</v>
       </c>
       <c r="F30" t="n">
         <v>1682312</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>1064.232788085938</v>
+        <v>1064.23291015625</v>
       </c>
       <c r="C36" t="n">
-        <v>1080.649619672263</v>
+        <v>1080.64974362563</v>
       </c>
       <c r="D36" t="n">
-        <v>1061.043323846663</v>
+        <v>1061.043445551136</v>
       </c>
       <c r="E36" t="n">
-        <v>1075.067942738804</v>
+        <v>1075.068066051937</v>
       </c>
       <c r="F36" t="n">
         <v>3494288</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>1058.932739257812</v>
+        <v>1058.9326171875</v>
       </c>
       <c r="C38" t="n">
-        <v>1078.35146272411</v>
+        <v>1078.35133841527</v>
       </c>
       <c r="D38" t="n">
-        <v>1054.476741477961</v>
+        <v>1054.476619921321</v>
       </c>
       <c r="E38" t="n">
-        <v>1057.244104819549</v>
+        <v>1057.243982943897</v>
       </c>
       <c r="F38" t="n">
         <v>2576193</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>1049.7392578125</v>
+        <v>1049.739135742188</v>
       </c>
       <c r="C39" t="n">
-        <v>1070.377563149296</v>
+        <v>1070.377438679031</v>
       </c>
       <c r="D39" t="n">
-        <v>1046.924943448391</v>
+        <v>1046.924821705345</v>
       </c>
       <c r="E39" t="n">
-        <v>1066.625143997152</v>
+        <v>1066.625019963241</v>
       </c>
       <c r="F39" t="n">
         <v>1913493</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>1032.149658203125</v>
+        <v>1032.149780273438</v>
       </c>
       <c r="C41" t="n">
-        <v>1065.217847661575</v>
+        <v>1065.217973642798</v>
       </c>
       <c r="D41" t="n">
-        <v>1028.866291873917</v>
+        <v>1028.866413555912</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.801016015536</v>
+        <v>1048.801140055172</v>
       </c>
       <c r="F41" t="n">
         <v>3894204</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>1057.150146484375</v>
+        <v>1057.150268554688</v>
       </c>
       <c r="C42" t="n">
-        <v>1059.12014333431</v>
+        <v>1059.1202656321</v>
       </c>
       <c r="D42" t="n">
-        <v>1029.100794718989</v>
+        <v>1029.100913550411</v>
       </c>
       <c r="E42" t="n">
-        <v>1032.149634812732</v>
+        <v>1032.149753996208</v>
       </c>
       <c r="F42" t="n">
         <v>2084324</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>1041.108764648438</v>
+        <v>1041.108642578125</v>
       </c>
       <c r="C43" t="n">
-        <v>1054.429807153553</v>
+        <v>1054.429683521344</v>
       </c>
       <c r="D43" t="n">
-        <v>1036.605815751491</v>
+        <v>1036.605694209151</v>
       </c>
       <c r="E43" t="n">
-        <v>1050.677387911014</v>
+        <v>1050.677264718777</v>
       </c>
       <c r="F43" t="n">
         <v>1838692</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>1017.984252929688</v>
+        <v>1017.984497070312</v>
       </c>
       <c r="C44" t="n">
-        <v>1050.301911334664</v>
+        <v>1050.302163225952</v>
       </c>
       <c r="D44" t="n">
-        <v>1015.451301742788</v>
+        <v>1015.451545275942</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.8009668432</v>
+        <v>1048.80121837452</v>
       </c>
       <c r="F44" t="n">
         <v>2388401</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>1022.581115722656</v>
+        <v>1022.580993652344</v>
       </c>
       <c r="C45" t="n">
-        <v>1028.162793109279</v>
+        <v>1028.162670372656</v>
       </c>
       <c r="D45" t="n">
-        <v>1017.843640988657</v>
+        <v>1017.843519483879</v>
       </c>
       <c r="E45" t="n">
-        <v>1024.410374156326</v>
+        <v>1024.410251867646</v>
       </c>
       <c r="F45" t="n">
         <v>2076844</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>1011.558349609375</v>
+        <v>1011.558288574219</v>
       </c>
       <c r="C46" t="n">
-        <v>1021.033184230693</v>
+        <v>1021.033122623847</v>
       </c>
       <c r="D46" t="n">
-        <v>1003.396769963791</v>
+        <v>1003.396709421086</v>
       </c>
       <c r="E46" t="n">
-        <v>1013.153081802615</v>
+        <v>1013.153020671236</v>
       </c>
       <c r="F46" t="n">
         <v>2230530</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>995.5636596679688</v>
+        <v>995.5635986328125</v>
       </c>
       <c r="C48" t="n">
-        <v>997.1583919270299</v>
+        <v>997.1583307941053</v>
       </c>
       <c r="D48" t="n">
-        <v>976.6139896431997</v>
+        <v>976.6139297697935</v>
       </c>
       <c r="E48" t="n">
-        <v>980.3194575764686</v>
+        <v>980.3193974758907</v>
       </c>
       <c r="F48" t="n">
         <v>1400844</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>1046.268188476562</v>
+        <v>1046.268310546875</v>
       </c>
       <c r="C50" t="n">
-        <v>1067.797644934</v>
+        <v>1067.7977695162</v>
       </c>
       <c r="D50" t="n">
-        <v>1030.414196586676</v>
+        <v>1030.41431680727</v>
       </c>
       <c r="E50" t="n">
-        <v>1058.18207202772</v>
+        <v>1058.18219548805</v>
       </c>
       <c r="F50" t="n">
         <v>4325522</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>1045.423828125</v>
+        <v>1045.423950195312</v>
       </c>
       <c r="C51" t="n">
-        <v>1062.122021918814</v>
+        <v>1062.122145938913</v>
       </c>
       <c r="D51" t="n">
-        <v>1041.812148183271</v>
+        <v>1041.812269831861</v>
       </c>
       <c r="E51" t="n">
-        <v>1055.273926792293</v>
+        <v>1055.274050012766</v>
       </c>
       <c r="F51" t="n">
         <v>2583351</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>1048.566528320312</v>
+        <v>1048.566650390625</v>
       </c>
       <c r="C52" t="n">
-        <v>1053.116313211911</v>
+        <v>1053.116435811894</v>
       </c>
       <c r="D52" t="n">
-        <v>1032.90022563777</v>
+        <v>1032.900345884269</v>
       </c>
       <c r="E52" t="n">
-        <v>1037.543798096413</v>
+        <v>1037.543918883499</v>
       </c>
       <c r="F52" t="n">
         <v>2396839</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>1040.358154296875</v>
+        <v>1040.358276367188</v>
       </c>
       <c r="C54" t="n">
-        <v>1066.437511815532</v>
+        <v>1066.437636945863</v>
       </c>
       <c r="D54" t="n">
-        <v>1028.162792704576</v>
+        <v>1028.162913343947</v>
       </c>
       <c r="E54" t="n">
-        <v>1066.437511815532</v>
+        <v>1066.437636945863</v>
       </c>
       <c r="F54" t="n">
         <v>4007438</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>1031.399169921875</v>
+        <v>1031.399291992188</v>
       </c>
       <c r="C57" t="n">
-        <v>1043.172429750583</v>
+        <v>1043.172553214309</v>
       </c>
       <c r="D57" t="n">
-        <v>1019.81359974261</v>
+        <v>1019.813720441723</v>
       </c>
       <c r="E57" t="n">
-        <v>1019.81359974261</v>
+        <v>1019.813720441723</v>
       </c>
       <c r="F57" t="n">
         <v>1720354</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>1033.744384765625</v>
+        <v>1033.744506835938</v>
       </c>
       <c r="C58" t="n">
-        <v>1048.801010371574</v>
+        <v>1048.801134219857</v>
       </c>
       <c r="D58" t="n">
-        <v>1028.772498774132</v>
+        <v>1028.772620257336</v>
       </c>
       <c r="E58" t="n">
-        <v>1036.605649785858</v>
+        <v>1036.605772194044</v>
       </c>
       <c r="F58" t="n">
         <v>1943460</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>1034.7294921875</v>
+        <v>1034.729614257812</v>
       </c>
       <c r="C59" t="n">
-        <v>1044.720330223536</v>
+        <v>1044.720453472499</v>
       </c>
       <c r="D59" t="n">
-        <v>1022.627918559967</v>
+        <v>1022.628039202618</v>
       </c>
       <c r="E59" t="n">
-        <v>1022.627918559967</v>
+        <v>1022.628039202618</v>
       </c>
       <c r="F59" t="n">
         <v>1455300</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>1014.18505859375</v>
+        <v>1014.184936523438</v>
       </c>
       <c r="C61" t="n">
-        <v>1020.095164536017</v>
+        <v>1020.095041754347</v>
       </c>
       <c r="D61" t="n">
-        <v>999.1753820569382</v>
+        <v>999.1752617932349</v>
       </c>
       <c r="E61" t="n">
-        <v>1009.119269859627</v>
+        <v>1009.119148399048</v>
       </c>
       <c r="F61" t="n">
         <v>1642278</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>1033.650756835938</v>
+        <v>1033.650634765625</v>
       </c>
       <c r="C62" t="n">
-        <v>1037.543914680954</v>
+        <v>1037.543792150874</v>
       </c>
       <c r="D62" t="n">
-        <v>1023.894443957688</v>
+        <v>1023.89432303956</v>
       </c>
       <c r="E62" t="n">
-        <v>1027.224761822463</v>
+        <v>1027.224640511037</v>
       </c>
       <c r="F62" t="n">
         <v>2281085</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>1034.9169921875</v>
+        <v>1034.917114257812</v>
       </c>
       <c r="C63" t="n">
-        <v>1036.605626343996</v>
+        <v>1036.605748613486</v>
       </c>
       <c r="D63" t="n">
-        <v>1017.937321120467</v>
+        <v>1017.937441187997</v>
       </c>
       <c r="E63" t="n">
-        <v>1036.230361585361</v>
+        <v>1036.230483810587</v>
       </c>
       <c r="F63" t="n">
         <v>1508662</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>1025.114013671875</v>
+        <v>1025.113891601562</v>
       </c>
       <c r="C65" t="n">
-        <v>1036.558846353094</v>
+        <v>1036.558722919933</v>
       </c>
       <c r="D65" t="n">
-        <v>1015.967491930122</v>
+        <v>1015.967370948975</v>
       </c>
       <c r="E65" t="n">
-        <v>1035.667692604667</v>
+        <v>1035.667569277625</v>
       </c>
       <c r="F65" t="n">
         <v>1355815</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>1030.2734375</v>
+        <v>1030.273559570312</v>
       </c>
       <c r="C67" t="n">
-        <v>1047.862899783747</v>
+        <v>1047.863023938119</v>
       </c>
       <c r="D67" t="n">
-        <v>1024.785548170417</v>
+        <v>1024.785669590505</v>
       </c>
       <c r="E67" t="n">
-        <v>1039.419957887548</v>
+        <v>1039.420081041572</v>
       </c>
       <c r="F67" t="n">
         <v>1384483</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>1041.202514648438</v>
+        <v>1041.202392578125</v>
       </c>
       <c r="C68" t="n">
-        <v>1044.579668941888</v>
+        <v>1044.579546475639</v>
       </c>
       <c r="D68" t="n">
-        <v>1023.284736314934</v>
+        <v>1023.284616345297</v>
       </c>
       <c r="E68" t="n">
-        <v>1034.729568785723</v>
+        <v>1034.729447474297</v>
       </c>
       <c r="F68" t="n">
         <v>1376719</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>1019.579040527344</v>
+        <v>1019.579162597656</v>
       </c>
       <c r="C69" t="n">
-        <v>1032.149666043314</v>
+        <v>1032.14978961866</v>
       </c>
       <c r="D69" t="n">
-        <v>1009.40062773243</v>
+        <v>1009.40074858412</v>
       </c>
       <c r="E69" t="n">
-        <v>1032.149666043314</v>
+        <v>1032.14978961866</v>
       </c>
       <c r="F69" t="n">
         <v>2725180</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>951.1444091796875</v>
+        <v>951.1443481445312</v>
       </c>
       <c r="C72" t="n">
-        <v>965.3097677076294</v>
+        <v>965.3097057634789</v>
       </c>
       <c r="D72" t="n">
-        <v>947.4857778277023</v>
+        <v>947.4857170273214</v>
       </c>
       <c r="E72" t="n">
-        <v>961.7449239257489</v>
+        <v>961.7448622103552</v>
       </c>
       <c r="F72" t="n">
         <v>1953837</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>936.93212890625</v>
+        <v>936.9320678710938</v>
       </c>
       <c r="C74" t="n">
-        <v>956.4915902463008</v>
+        <v>956.4915279369703</v>
       </c>
       <c r="D74" t="n">
-        <v>932.3353926800071</v>
+        <v>932.3353319442988</v>
       </c>
       <c r="E74" t="n">
-        <v>951.5196464705379</v>
+        <v>951.5195844850978</v>
       </c>
       <c r="F74" t="n">
         <v>4269272</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>943.8271484375</v>
+        <v>943.8270874023438</v>
       </c>
       <c r="C75" t="n">
-        <v>945.0936241807591</v>
+        <v>945.0935630637027</v>
       </c>
       <c r="D75" t="n">
-        <v>929.6617898801148</v>
+        <v>929.6617297610002</v>
       </c>
       <c r="E75" t="n">
-        <v>939.9809419373108</v>
+        <v>939.98088115088</v>
       </c>
       <c r="F75" t="n">
         <v>1625433</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>935.2904663085938</v>
+        <v>935.2904052734375</v>
       </c>
       <c r="C76" t="n">
-        <v>943.8271969095649</v>
+        <v>943.8271353173189</v>
       </c>
       <c r="D76" t="n">
-        <v>932.8514167818511</v>
+        <v>932.8513559058622</v>
       </c>
       <c r="E76" t="n">
-        <v>943.7334093344487</v>
+        <v>943.7333477483231</v>
       </c>
       <c r="F76" t="n">
         <v>1984203</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>934.6337280273438</v>
+        <v>934.6336669921875</v>
       </c>
       <c r="C77" t="n">
-        <v>940.4499887860228</v>
+        <v>940.4499273710425</v>
       </c>
       <c r="D77" t="n">
-        <v>931.2565739132042</v>
+        <v>931.256513098589</v>
       </c>
       <c r="E77" t="n">
-        <v>935.2904127876955</v>
+        <v>935.2903517096552</v>
       </c>
       <c r="F77" t="n">
         <v>1589700</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>941.059814453125</v>
+        <v>941.0597534179688</v>
       </c>
       <c r="C78" t="n">
-        <v>946.2193906416571</v>
+        <v>946.2193292718616</v>
       </c>
       <c r="D78" t="n">
-        <v>931.5380282204311</v>
+        <v>931.5379678028379</v>
       </c>
       <c r="E78" t="n">
-        <v>937.1666567897389</v>
+        <v>937.1665960070846</v>
       </c>
       <c r="F78" t="n">
         <v>3543950</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>960.3378295898438</v>
+        <v>960.3377685546875</v>
       </c>
       <c r="C79" t="n">
-        <v>963.1520865401675</v>
+        <v>963.1520253261485</v>
       </c>
       <c r="D79" t="n">
-        <v>920.3276397008636</v>
+        <v>920.3275812085919</v>
       </c>
       <c r="E79" t="n">
-        <v>921.1719568661191</v>
+        <v>921.1718983201861</v>
       </c>
       <c r="F79" t="n">
         <v>5146250</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>988.2463989257812</v>
+        <v>988.2462768554688</v>
       </c>
       <c r="C80" t="n">
-        <v>999.8320841513525</v>
+        <v>999.8319606499514</v>
       </c>
       <c r="D80" t="n">
-        <v>957.2421057775061</v>
+        <v>957.2419875369103</v>
       </c>
       <c r="E80" t="n">
-        <v>957.2421057775061</v>
+        <v>957.2419875369103</v>
       </c>
       <c r="F80" t="n">
         <v>4762884</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>980.7415771484375</v>
+        <v>980.7415161132812</v>
       </c>
       <c r="C82" t="n">
-        <v>982.2426363786982</v>
+        <v>982.2425752501256</v>
       </c>
       <c r="D82" t="n">
-        <v>965.1690610097846</v>
+        <v>965.1690009437634</v>
       </c>
       <c r="E82" t="n">
-        <v>969.0622186731332</v>
+        <v>969.0621583648265</v>
       </c>
       <c r="F82" t="n">
         <v>1744298</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>978.7715454101562</v>
+        <v>978.7716064453125</v>
       </c>
       <c r="C84" t="n">
-        <v>982.1956505715432</v>
+        <v>982.195711820223</v>
       </c>
       <c r="D84" t="n">
-        <v>971.219871055865</v>
+        <v>971.2199316201068</v>
       </c>
       <c r="E84" t="n">
-        <v>976.5200711591938</v>
+        <v>976.5201320539504</v>
       </c>
       <c r="F84" t="n">
         <v>1487285</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>982.9461059570312</v>
+        <v>982.9461669921875</v>
       </c>
       <c r="C85" t="n">
-        <v>986.3700963452022</v>
+        <v>986.3701575929681</v>
       </c>
       <c r="D85" t="n">
-        <v>975.4881052208973</v>
+        <v>975.4881657929557</v>
       </c>
       <c r="E85" t="n">
-        <v>983.5089458485985</v>
+        <v>983.5090069187038</v>
       </c>
       <c r="F85" t="n">
         <v>1747630</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>981.3983154296875</v>
+        <v>981.3982543945312</v>
       </c>
       <c r="C86" t="n">
-        <v>985.9481006027845</v>
+        <v>985.9480392846679</v>
       </c>
       <c r="D86" t="n">
-        <v>973.8934773661077</v>
+        <v>973.8934167976927</v>
       </c>
       <c r="E86" t="n">
-        <v>983.1337863289421</v>
+        <v>983.1337251858533</v>
       </c>
       <c r="F86" t="n">
         <v>1186977</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>991.7643432617188</v>
+        <v>991.7642822265625</v>
       </c>
       <c r="C90" t="n">
-        <v>1005.460764877665</v>
+        <v>1005.460702999604</v>
       </c>
       <c r="D90" t="n">
-        <v>987.8243489294368</v>
+        <v>987.8242881367557</v>
       </c>
       <c r="E90" t="n">
-        <v>1003.678342864587</v>
+        <v>1003.678281096219</v>
       </c>
       <c r="F90" t="n">
         <v>1343911</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>983.7904052734375</v>
+        <v>983.7903442382812</v>
       </c>
       <c r="C92" t="n">
-        <v>994.3440837083022</v>
+        <v>994.344022018387</v>
       </c>
       <c r="D92" t="n">
-        <v>980.3664145485845</v>
+        <v>980.3663537258554</v>
       </c>
       <c r="E92" t="n">
-        <v>993.4529300019207</v>
+        <v>993.4528683672935</v>
       </c>
       <c r="F92" t="n">
         <v>909923</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>1005.789123535156</v>
+        <v>1005.788879394531</v>
       </c>
       <c r="C93" t="n">
-        <v>1011.980592554206</v>
+        <v>1011.980346910693</v>
       </c>
       <c r="D93" t="n">
-        <v>984.071973663372</v>
+        <v>984.071734794268</v>
       </c>
       <c r="E93" t="n">
-        <v>991.1547109861058</v>
+        <v>991.1544703977708</v>
       </c>
       <c r="F93" t="n">
         <v>2624323</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>1023.003173828125</v>
+        <v>1023.003112792969</v>
       </c>
       <c r="C95" t="n">
-        <v>1049.926732872178</v>
+        <v>1049.926670230689</v>
       </c>
       <c r="D95" t="n">
-        <v>1019.156967466794</v>
+        <v>1019.156906661113</v>
       </c>
       <c r="E95" t="n">
-        <v>1035.667587259285</v>
+        <v>1035.667525468535</v>
       </c>
       <c r="F95" t="n">
         <v>1414119</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>1045.095581054688</v>
+        <v>1045.095703125</v>
       </c>
       <c r="C99" t="n">
-        <v>1058.229046781974</v>
+        <v>1058.229170386315</v>
       </c>
       <c r="D99" t="n">
-        <v>1041.389998801363</v>
+        <v>1041.390120438853</v>
       </c>
       <c r="E99" t="n">
-        <v>1058.229046781974</v>
+        <v>1058.229170386315</v>
       </c>
       <c r="F99" t="n">
         <v>1432241</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>1046.502807617188</v>
+        <v>1046.502685546875</v>
       </c>
       <c r="C101" t="n">
-        <v>1057.666162615188</v>
+        <v>1057.666039242715</v>
       </c>
       <c r="D101" t="n">
-        <v>1028.162813809489</v>
+        <v>1028.162693878462</v>
       </c>
       <c r="E101" t="n">
-        <v>1030.414288129538</v>
+        <v>1030.414167935886</v>
       </c>
       <c r="F101" t="n">
         <v>7599886</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>1053.58544921875</v>
+        <v>1053.585327148438</v>
       </c>
       <c r="C103" t="n">
-        <v>1068.688913183542</v>
+        <v>1068.688789363315</v>
       </c>
       <c r="D103" t="n">
-        <v>1048.425872959584</v>
+        <v>1048.425751487069</v>
       </c>
       <c r="E103" t="n">
-        <v>1058.182185516228</v>
+        <v>1058.18206291333</v>
       </c>
       <c r="F103" t="n">
         <v>1907589</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>1040.686401367188</v>
+        <v>1040.686279296875</v>
       </c>
       <c r="C104" t="n">
-        <v>1064.326707955512</v>
+        <v>1064.326583112241</v>
       </c>
       <c r="D104" t="n">
-        <v>1038.950930616283</v>
+        <v>1038.950808749537</v>
       </c>
       <c r="E104" t="n">
-        <v>1054.523445364109</v>
+        <v>1054.52332167074</v>
       </c>
       <c r="F104" t="n">
         <v>1754521</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>1027.881225585938</v>
+        <v>1027.88134765625</v>
       </c>
       <c r="C106" t="n">
-        <v>1030.977016756065</v>
+        <v>1030.977139194031</v>
       </c>
       <c r="D106" t="n">
-        <v>1017.093022043904</v>
+        <v>1017.093142833019</v>
       </c>
       <c r="E106" t="n">
-        <v>1027.224598132748</v>
+        <v>1027.22472012508</v>
       </c>
       <c r="F106" t="n">
         <v>2086377</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>997.2522583007812</v>
+        <v>997.2523193359375</v>
       </c>
       <c r="C108" t="n">
-        <v>1012.21498262733</v>
+        <v>1012.215044578255</v>
       </c>
       <c r="D108" t="n">
-        <v>994.484780695971</v>
+        <v>994.4848415617485</v>
       </c>
       <c r="E108" t="n">
-        <v>1012.21498262733</v>
+        <v>1012.215044578255</v>
       </c>
       <c r="F108" t="n">
         <v>2782697</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>1008.228088378906</v>
+        <v>1008.22802734375</v>
       </c>
       <c r="C109" t="n">
-        <v>1012.215033599293</v>
+        <v>1012.214972322779</v>
       </c>
       <c r="D109" t="n">
-        <v>996.4079913343558</v>
+        <v>996.4079310147533</v>
       </c>
       <c r="E109" t="n">
-        <v>1000.019671748699</v>
+        <v>1000.019611210456</v>
       </c>
       <c r="F109" t="n">
         <v>1767945</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>1012.590270996094</v>
+        <v>1012.59033203125</v>
       </c>
       <c r="C110" t="n">
-        <v>1020.564161221026</v>
+        <v>1020.564222736818</v>
       </c>
       <c r="D110" t="n">
-        <v>1008.837852066714</v>
+        <v>1008.837912875688</v>
       </c>
       <c r="E110" t="n">
-        <v>1012.731009608893</v>
+        <v>1012.731070652532</v>
       </c>
       <c r="F110" t="n">
         <v>1846534</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>1010.901611328125</v>
+        <v>1010.901550292969</v>
       </c>
       <c r="C111" t="n">
-        <v>1017.79665803505</v>
+        <v>1017.796596583592</v>
       </c>
       <c r="D111" t="n">
-        <v>1004.757094194155</v>
+        <v>1004.757033529986</v>
       </c>
       <c r="E111" t="n">
-        <v>1013.153085532255</v>
+        <v>1013.153024361161</v>
       </c>
       <c r="F111" t="n">
         <v>1321534</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>1014.560241699219</v>
+        <v>1014.560302734375</v>
       </c>
       <c r="C112" t="n">
-        <v>1016.436451115214</v>
+        <v>1016.436512263241</v>
       </c>
       <c r="D112" t="n">
-        <v>1003.162246594103</v>
+        <v>1003.162306943565</v>
       </c>
       <c r="E112" t="n">
-        <v>1012.168028887931</v>
+        <v>1012.168089779174</v>
       </c>
       <c r="F112" t="n">
         <v>1389325</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>1025.911254882812</v>
+        <v>1025.911376953125</v>
       </c>
       <c r="C114" t="n">
-        <v>1027.975153887124</v>
+        <v>1027.975276203014</v>
       </c>
       <c r="D114" t="n">
-        <v>1007.571377102339</v>
+        <v>1007.571496990441</v>
       </c>
       <c r="E114" t="n">
-        <v>1012.21494946126</v>
+        <v>1012.215069901887</v>
       </c>
       <c r="F114" t="n">
         <v>2188899</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>1038.810302734375</v>
+        <v>1038.810180664062</v>
       </c>
       <c r="C115" t="n">
-        <v>1042.187457031313</v>
+        <v>1042.187334564152</v>
       </c>
       <c r="D115" t="n">
-        <v>1020.845573337585</v>
+        <v>1020.845453378303</v>
       </c>
       <c r="E115" t="n">
-        <v>1025.911362040364</v>
+        <v>1025.911241485802</v>
       </c>
       <c r="F115" t="n">
         <v>3318866</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>1043.078735351562</v>
+        <v>1043.07861328125</v>
       </c>
       <c r="C119" t="n">
-        <v>1056.305989942566</v>
+        <v>1056.305866324283</v>
       </c>
       <c r="D119" t="n">
-        <v>1039.701581022013</v>
+        <v>1039.701459346925</v>
       </c>
       <c r="E119" t="n">
-        <v>1043.360098078757</v>
+        <v>1043.359975975517</v>
       </c>
       <c r="F119" t="n">
         <v>1432154</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>1039.513916015625</v>
+        <v>1039.513793945312</v>
       </c>
       <c r="C121" t="n">
-        <v>1057.197168763443</v>
+        <v>1057.197044616583</v>
       </c>
       <c r="D121" t="n">
-        <v>1036.324336761874</v>
+        <v>1036.324215066114</v>
       </c>
       <c r="E121" t="n">
-        <v>1050.67738614638</v>
+        <v>1050.677262765139</v>
       </c>
       <c r="F121" t="n">
         <v>1876800</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>1076.944213867188</v>
+        <v>1076.944091796875</v>
       </c>
       <c r="C124" t="n">
-        <v>1084.449051594485</v>
+        <v>1084.448928673508</v>
       </c>
       <c r="D124" t="n">
-        <v>1050.77106939029</v>
+        <v>1050.770950286672</v>
       </c>
       <c r="E124" t="n">
-        <v>1054.007599369029</v>
+        <v>1054.007479898554</v>
       </c>
       <c r="F124" t="n">
         <v>2773593</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>1102.273071289062</v>
+        <v>1102.273193359375</v>
       </c>
       <c r="C125" t="n">
-        <v>1111.607167661317</v>
+        <v>1111.607290765326</v>
       </c>
       <c r="D125" t="n">
-        <v>1075.537086155668</v>
+        <v>1075.537205265126</v>
       </c>
       <c r="E125" t="n">
-        <v>1079.570982350111</v>
+        <v>1079.5711019063</v>
       </c>
       <c r="F125" t="n">
         <v>3732838</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>1084.449096679688</v>
+        <v>1084.448974609375</v>
       </c>
       <c r="C127" t="n">
-        <v>1110.997507049628</v>
+        <v>1110.997381990911</v>
       </c>
       <c r="D127" t="n">
-        <v>1079.99309909385</v>
+        <v>1079.992977525124</v>
       </c>
       <c r="E127" t="n">
-        <v>1097.582563248473</v>
+        <v>1097.5824396998</v>
       </c>
       <c r="F127" t="n">
         <v>2261102</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>1076.14697265625</v>
+        <v>1076.146728515625</v>
       </c>
       <c r="C128" t="n">
-        <v>1088.154645704662</v>
+        <v>1088.15439883991</v>
       </c>
       <c r="D128" t="n">
-        <v>1065.311816124072</v>
+        <v>1065.31157444157</v>
       </c>
       <c r="E128" t="n">
-        <v>1088.154645704662</v>
+        <v>1088.15439883991</v>
       </c>
       <c r="F128" t="n">
         <v>2088505</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>1102.507690429688</v>
+        <v>1102.507568359375</v>
       </c>
       <c r="C131" t="n">
-        <v>1118.127158595904</v>
+        <v>1118.127034796194</v>
       </c>
       <c r="D131" t="n">
-        <v>1082.103910581276</v>
+        <v>1082.103790770082</v>
       </c>
       <c r="E131" t="n">
-        <v>1087.638751925864</v>
+        <v>1087.638631501849</v>
       </c>
       <c r="F131" t="n">
         <v>3215610</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>1152.602294921875</v>
+        <v>1152.602416992188</v>
       </c>
       <c r="C132" t="n">
-        <v>1155.744922579515</v>
+        <v>1155.745044982658</v>
       </c>
       <c r="D132" t="n">
-        <v>1109.777794976921</v>
+        <v>1109.777912511757</v>
       </c>
       <c r="E132" t="n">
-        <v>1110.668948583733</v>
+        <v>1110.66906621295</v>
       </c>
       <c r="F132" t="n">
         <v>6033106</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>1165.501342773438</v>
+        <v>1165.501220703125</v>
       </c>
       <c r="C133" t="n">
-        <v>1192.096589041714</v>
+        <v>1192.096464185913</v>
       </c>
       <c r="D133" t="n">
-        <v>1145.097564837843</v>
+        <v>1145.097444904547</v>
       </c>
       <c r="E133" t="n">
-        <v>1159.403662011076</v>
+        <v>1159.403540579412</v>
       </c>
       <c r="F133" t="n">
         <v>4880073</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>1170.332763671875</v>
+        <v>1170.33251953125</v>
       </c>
       <c r="C134" t="n">
-        <v>1180.51117849795</v>
+        <v>1180.510932234027</v>
       </c>
       <c r="D134" t="n">
-        <v>1149.178453277077</v>
+        <v>1149.178213549408</v>
       </c>
       <c r="E134" t="n">
-        <v>1166.064340753802</v>
+        <v>1166.064097503603</v>
       </c>
       <c r="F134" t="n">
         <v>2666872</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>1167.658935546875</v>
+        <v>1167.658813476562</v>
       </c>
       <c r="C135" t="n">
-        <v>1183.606716283596</v>
+        <v>1183.606592546059</v>
       </c>
       <c r="D135" t="n">
-        <v>1154.900733860446</v>
+        <v>1154.900613123911</v>
       </c>
       <c r="E135" t="n">
-        <v>1177.321460269726</v>
+        <v>1177.321337189266</v>
       </c>
       <c r="F135" t="n">
         <v>2293881</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>1175.398193359375</v>
+        <v>1175.398315429688</v>
       </c>
       <c r="C136" t="n">
-        <v>1177.790406059294</v>
+        <v>1177.790528378049</v>
       </c>
       <c r="D136" t="n">
-        <v>1159.122100336293</v>
+        <v>1159.12222071626</v>
       </c>
       <c r="E136" t="n">
-        <v>1167.940307083888</v>
+        <v>1167.940428379666</v>
       </c>
       <c r="F136" t="n">
         <v>2000345</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>1118.503295898438</v>
+        <v>1118.503173828125</v>
       </c>
       <c r="C138" t="n">
-        <v>1159.032591796875</v>
+        <v>1159.032465303309</v>
       </c>
       <c r="D138" t="n">
-        <v>1112.149554364814</v>
+        <v>1112.149432987931</v>
       </c>
       <c r="E138" t="n">
-        <v>1151.860585845055</v>
+        <v>1151.860460134221</v>
       </c>
       <c r="F138" t="n">
         <v>2669308</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>1100.548950195312</v>
+        <v>1100.549194335938</v>
       </c>
       <c r="C140" t="n">
-        <v>1123.461056450688</v>
+        <v>1123.461305674027</v>
       </c>
       <c r="D140" t="n">
-        <v>1096.938856826255</v>
+        <v>1096.939100166034</v>
       </c>
       <c r="E140" t="n">
-        <v>1114.79683236495</v>
+        <v>1114.797079666258</v>
       </c>
       <c r="F140" t="n">
         <v>3170213</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>1100.837890625</v>
+        <v>1100.837768554688</v>
       </c>
       <c r="C144" t="n">
-        <v>1111.427498667742</v>
+        <v>1111.427375423163</v>
       </c>
       <c r="D144" t="n">
-        <v>1078.118391418332</v>
+        <v>1078.118271867352</v>
       </c>
       <c r="E144" t="n">
-        <v>1078.214637079143</v>
+        <v>1078.21451751749</v>
       </c>
       <c r="F144" t="n">
         <v>3805214</v>
@@ -3321,16 +3321,16 @@
         <v>45140</v>
       </c>
       <c r="B145" t="n">
-        <v>1102.907592773438</v>
+        <v>1102.90771484375</v>
       </c>
       <c r="C145" t="n">
-        <v>1109.598252009259</v>
+        <v>1109.598374820097</v>
       </c>
       <c r="D145" t="n">
-        <v>1083.605580276797</v>
+        <v>1083.605700210754</v>
       </c>
       <c r="E145" t="n">
-        <v>1100.356436674262</v>
+        <v>1100.356558462211</v>
       </c>
       <c r="F145" t="n">
         <v>2357217</v>
@@ -3341,16 +3341,16 @@
         <v>45141</v>
       </c>
       <c r="B146" t="n">
-        <v>1100.163940429688</v>
+        <v>1100.164184570312</v>
       </c>
       <c r="C146" t="n">
-        <v>1104.15901631333</v>
+        <v>1104.159261340514</v>
       </c>
       <c r="D146" t="n">
-        <v>1079.466072291255</v>
+        <v>1079.466311838755</v>
       </c>
       <c r="E146" t="n">
-        <v>1097.468357107562</v>
+        <v>1097.468600650002</v>
       </c>
       <c r="F146" t="n">
         <v>2348236</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>1131.355102539062</v>
+        <v>1131.355224609375</v>
       </c>
       <c r="C147" t="n">
-        <v>1137.757025076037</v>
+        <v>1137.757147837101</v>
       </c>
       <c r="D147" t="n">
-        <v>1100.163989229522</v>
+        <v>1100.164107934393</v>
       </c>
       <c r="E147" t="n">
-        <v>1110.897906378544</v>
+        <v>1110.898026241577</v>
       </c>
       <c r="F147" t="n">
         <v>3580506</v>
@@ -3421,16 +3421,16 @@
         <v>45147</v>
       </c>
       <c r="B150" t="n">
-        <v>1182.185424804688</v>
+        <v>1182.185302734375</v>
       </c>
       <c r="C150" t="n">
-        <v>1190.368304373775</v>
+        <v>1190.368181458514</v>
       </c>
       <c r="D150" t="n">
-        <v>1155.422548148769</v>
+        <v>1155.422428841942</v>
       </c>
       <c r="E150" t="n">
-        <v>1161.920717218339</v>
+        <v>1161.920597240523</v>
       </c>
       <c r="F150" t="n">
         <v>3396984</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>1174.9169921875</v>
+        <v>1174.916870117188</v>
       </c>
       <c r="C152" t="n">
-        <v>1203.701496392012</v>
+        <v>1203.701371331077</v>
       </c>
       <c r="D152" t="n">
-        <v>1169.959224139766</v>
+        <v>1169.959102584551</v>
       </c>
       <c r="E152" t="n">
-        <v>1189.694403215907</v>
+        <v>1189.694279610266</v>
       </c>
       <c r="F152" t="n">
         <v>2933959</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>1174.243041992188</v>
+        <v>1174.2431640625</v>
       </c>
       <c r="C153" t="n">
-        <v>1175.638897761651</v>
+        <v>1175.639019977071</v>
       </c>
       <c r="D153" t="n">
-        <v>1158.117958201764</v>
+        <v>1158.118078595767</v>
       </c>
       <c r="E153" t="n">
-        <v>1166.878427981707</v>
+        <v>1166.878549286419</v>
       </c>
       <c r="F153" t="n">
         <v>1842625</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>1185.79541015625</v>
+        <v>1185.795532226562</v>
       </c>
       <c r="C155" t="n">
-        <v>1187.865220655068</v>
+        <v>1187.865342938455</v>
       </c>
       <c r="D155" t="n">
-        <v>1169.23716119784</v>
+        <v>1169.237281563584</v>
       </c>
       <c r="E155" t="n">
-        <v>1179.297241681677</v>
+        <v>1179.297363083044</v>
       </c>
       <c r="F155" t="n">
         <v>2636308</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>1140.548950195312</v>
+        <v>1140.548828125</v>
       </c>
       <c r="C162" t="n">
-        <v>1151.668085933335</v>
+        <v>1151.667962672968</v>
       </c>
       <c r="D162" t="n">
-        <v>1138.190402622312</v>
+        <v>1138.19028080443</v>
       </c>
       <c r="E162" t="n">
-        <v>1145.169917194092</v>
+        <v>1145.169794629208</v>
       </c>
       <c r="F162" t="n">
         <v>950013</v>
@@ -3681,16 +3681,16 @@
         <v>45167</v>
       </c>
       <c r="B163" t="n">
-        <v>1153.304565429688</v>
+        <v>1153.3046875</v>
       </c>
       <c r="C163" t="n">
-        <v>1162.83523600949</v>
+        <v>1162.835359088567</v>
       </c>
       <c r="D163" t="n">
-        <v>1143.918322096683</v>
+        <v>1143.918443173518</v>
       </c>
       <c r="E163" t="n">
-        <v>1147.913515839073</v>
+        <v>1147.913637338775</v>
       </c>
       <c r="F163" t="n">
         <v>1419344</v>
@@ -3721,16 +3721,16 @@
         <v>45169</v>
       </c>
       <c r="B165" t="n">
-        <v>1157.107299804688</v>
+        <v>1157.107177734375</v>
       </c>
       <c r="C165" t="n">
-        <v>1169.189128251679</v>
+        <v>1169.189004906781</v>
       </c>
       <c r="D165" t="n">
-        <v>1153.304714405526</v>
+        <v>1153.304592736372</v>
       </c>
       <c r="E165" t="n">
-        <v>1154.267406153778</v>
+        <v>1154.267284383063</v>
       </c>
       <c r="F165" t="n">
         <v>2817747</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>1182.2333984375</v>
+        <v>1182.233520507812</v>
       </c>
       <c r="C166" t="n">
-        <v>1184.014354291927</v>
+        <v>1184.01447654613</v>
       </c>
       <c r="D166" t="n">
-        <v>1159.128801365438</v>
+        <v>1159.128921050109</v>
       </c>
       <c r="E166" t="n">
-        <v>1160.043311326451</v>
+        <v>1160.043431105548</v>
       </c>
       <c r="F166" t="n">
         <v>1686038</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>1202.353759765625</v>
+        <v>1202.353637695312</v>
       </c>
       <c r="C169" t="n">
-        <v>1212.606449942544</v>
+        <v>1212.606326831316</v>
       </c>
       <c r="D169" t="n">
-        <v>1189.742521914332</v>
+        <v>1189.742401124389</v>
       </c>
       <c r="E169" t="n">
-        <v>1207.744927334613</v>
+        <v>1207.744804716956</v>
       </c>
       <c r="F169" t="n">
         <v>1753376</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>1221.896362304688</v>
+        <v>1221.896240234375</v>
       </c>
       <c r="C170" t="n">
-        <v>1227.287411977685</v>
+        <v>1227.287289368794</v>
       </c>
       <c r="D170" t="n">
-        <v>1192.438021666461</v>
+        <v>1192.437902539106</v>
       </c>
       <c r="E170" t="n">
-        <v>1202.353675034494</v>
+        <v>1202.353554916541</v>
       </c>
       <c r="F170" t="n">
         <v>2554884</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>1215.831298828125</v>
+        <v>1215.831420898438</v>
       </c>
       <c r="C171" t="n">
-        <v>1230.319854290792</v>
+        <v>1230.319977815765</v>
       </c>
       <c r="D171" t="n">
-        <v>1212.076895633046</v>
+        <v>1212.077017326414</v>
       </c>
       <c r="E171" t="n">
-        <v>1224.543704740131</v>
+        <v>1224.543827685175</v>
       </c>
       <c r="F171" t="n">
         <v>1731105</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>1221.511352539062</v>
+        <v>1221.51123046875</v>
       </c>
       <c r="C172" t="n">
-        <v>1227.431930057851</v>
+        <v>1227.431807395873</v>
       </c>
       <c r="D172" t="n">
-        <v>1216.360975394584</v>
+        <v>1216.360853838969</v>
       </c>
       <c r="E172" t="n">
-        <v>1217.805012959358</v>
+        <v>1217.804891259434</v>
       </c>
       <c r="F172" t="n">
         <v>1293853</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>1218.767578125</v>
+        <v>1218.767700195312</v>
       </c>
       <c r="C173" t="n">
-        <v>1235.903535787528</v>
+        <v>1235.903659574158</v>
       </c>
       <c r="D173" t="n">
-        <v>1204.856731368467</v>
+        <v>1204.856852045486</v>
       </c>
       <c r="E173" t="n">
-        <v>1224.351236468808</v>
+        <v>1224.351359098373</v>
       </c>
       <c r="F173" t="n">
         <v>2335224</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>1213.376586914062</v>
+        <v>1213.37646484375</v>
       </c>
       <c r="C174" t="n">
-        <v>1221.415038739697</v>
+        <v>1221.414915860685</v>
       </c>
       <c r="D174" t="n">
-        <v>1207.119091149091</v>
+        <v>1207.118969708306</v>
       </c>
       <c r="E174" t="n">
-        <v>1213.280341251662</v>
+        <v>1213.280219191032</v>
       </c>
       <c r="F174" t="n">
         <v>1204376</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>1232.100708007812</v>
+        <v>1232.100952148438</v>
       </c>
       <c r="C175" t="n">
-        <v>1241.246277370906</v>
+        <v>1241.246523323724</v>
       </c>
       <c r="D175" t="n">
-        <v>1214.916688023527</v>
+        <v>1214.916928759141</v>
       </c>
       <c r="E175" t="n">
-        <v>1214.916688023527</v>
+        <v>1214.916928759141</v>
       </c>
       <c r="F175" t="n">
         <v>3288631</v>
@@ -3941,16 +3941,16 @@
         <v>45184</v>
       </c>
       <c r="B176" t="n">
-        <v>1251.547241210938</v>
+        <v>1251.54736328125</v>
       </c>
       <c r="C176" t="n">
-        <v>1255.060971480882</v>
+        <v>1255.061093893908</v>
       </c>
       <c r="D176" t="n">
-        <v>1226.46907843279</v>
+        <v>1226.469198057091</v>
       </c>
       <c r="E176" t="n">
-        <v>1230.512336080539</v>
+        <v>1230.512456099201</v>
       </c>
       <c r="F176" t="n">
         <v>4316210</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>1241.6796875</v>
+        <v>1241.679809570312</v>
       </c>
       <c r="C177" t="n">
-        <v>1253.424478153693</v>
+        <v>1253.424601378643</v>
       </c>
       <c r="D177" t="n">
-        <v>1235.133337535475</v>
+        <v>1235.133458962211</v>
       </c>
       <c r="E177" t="n">
-        <v>1252.461786542208</v>
+        <v>1252.461909672515</v>
       </c>
       <c r="F177" t="n">
         <v>1967717</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>1250.969604492188</v>
+        <v>1250.969482421875</v>
       </c>
       <c r="C181" t="n">
-        <v>1265.361915018686</v>
+        <v>1265.361791543963</v>
       </c>
       <c r="D181" t="n">
-        <v>1247.696546929303</v>
+        <v>1247.696425178377</v>
       </c>
       <c r="E181" t="n">
-        <v>1256.64950867095</v>
+        <v>1256.649386046389</v>
       </c>
       <c r="F181" t="n">
         <v>2100302</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>1240.572631835938</v>
+        <v>1240.572509765625</v>
       </c>
       <c r="C183" t="n">
-        <v>1245.626763053682</v>
+        <v>1245.626640486052</v>
       </c>
       <c r="D183" t="n">
-        <v>1216.842258900836</v>
+        <v>1216.842139165553</v>
       </c>
       <c r="E183" t="n">
-        <v>1222.570227274518</v>
+        <v>1222.570106975612</v>
       </c>
       <c r="F183" t="n">
         <v>1568115</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>1160.043334960938</v>
+        <v>1160.04345703125</v>
       </c>
       <c r="C187" t="n">
-        <v>1170.151596385908</v>
+        <v>1170.151719519904</v>
       </c>
       <c r="D187" t="n">
-        <v>1141.8003768242</v>
+        <v>1141.800496974822</v>
       </c>
       <c r="E187" t="n">
-        <v>1164.856792782352</v>
+        <v>1164.85691535918</v>
       </c>
       <c r="F187" t="n">
         <v>2340603</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>1171.499389648438</v>
+        <v>1171.49951171875</v>
       </c>
       <c r="C189" t="n">
-        <v>1177.371784695218</v>
+        <v>1177.371907377434</v>
       </c>
       <c r="D189" t="n">
-        <v>1160.043336514912</v>
+        <v>1160.043457391503</v>
       </c>
       <c r="E189" t="n">
-        <v>1161.968719646057</v>
+        <v>1161.968840723273</v>
       </c>
       <c r="F189" t="n">
         <v>1446719</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>1167.408081054688</v>
+        <v>1167.407958984375</v>
       </c>
       <c r="C190" t="n">
-        <v>1181.944701817359</v>
+        <v>1181.944578227021</v>
       </c>
       <c r="D190" t="n">
-        <v>1157.299818485694</v>
+        <v>1157.299697472354</v>
       </c>
       <c r="E190" t="n">
-        <v>1158.35875582304</v>
+        <v>1158.358634698973</v>
       </c>
       <c r="F190" t="n">
         <v>1451064</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>1181.944702148438</v>
+        <v>1181.944580078125</v>
       </c>
       <c r="C191" t="n">
-        <v>1185.506614333985</v>
+        <v>1185.506491895801</v>
       </c>
       <c r="D191" t="n">
-        <v>1167.744999964207</v>
+        <v>1167.744879360428</v>
       </c>
       <c r="E191" t="n">
-        <v>1169.862874639493</v>
+        <v>1169.862753816982</v>
       </c>
       <c r="F191" t="n">
         <v>1503359</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>1140.404541015625</v>
+        <v>1140.404418945312</v>
       </c>
       <c r="C195" t="n">
-        <v>1153.545305955343</v>
+        <v>1153.545182478427</v>
       </c>
       <c r="D195" t="n">
-        <v>1136.746383140016</v>
+        <v>1136.746261461277</v>
       </c>
       <c r="E195" t="n">
-        <v>1150.7054125048</v>
+        <v>1150.705289331869</v>
       </c>
       <c r="F195" t="n">
         <v>2638043</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>1142.811157226562</v>
+        <v>1142.811279296875</v>
       </c>
       <c r="C197" t="n">
-        <v>1157.155285348487</v>
+        <v>1157.15540895098</v>
       </c>
       <c r="D197" t="n">
-        <v>1134.098868890606</v>
+        <v>1134.098990030308</v>
       </c>
       <c r="E197" t="n">
-        <v>1155.229902178191</v>
+        <v>1155.230025575022</v>
       </c>
       <c r="F197" t="n">
         <v>2337078</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>1112.8232421875</v>
+        <v>1112.823364257812</v>
       </c>
       <c r="C200" t="n">
-        <v>1127.263615333318</v>
+        <v>1127.263738987657</v>
       </c>
       <c r="D200" t="n">
-        <v>1108.587493410906</v>
+        <v>1108.587615016581</v>
       </c>
       <c r="E200" t="n">
-        <v>1120.669201766606</v>
+        <v>1120.669324697575</v>
       </c>
       <c r="F200" t="n">
         <v>1203959</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>1099.538330078125</v>
+        <v>1099.538208007812</v>
       </c>
       <c r="C201" t="n">
-        <v>1122.402257566768</v>
+        <v>1122.402132958112</v>
       </c>
       <c r="D201" t="n">
-        <v>1094.099098561822</v>
+        <v>1094.098977095371</v>
       </c>
       <c r="E201" t="n">
-        <v>1118.647736496997</v>
+        <v>1118.647612305166</v>
       </c>
       <c r="F201" t="n">
         <v>1555285</v>
@@ -4461,16 +4461,16 @@
         <v>45225</v>
       </c>
       <c r="B202" t="n">
-        <v>1073.834350585938</v>
+        <v>1073.834228515625</v>
       </c>
       <c r="C202" t="n">
-        <v>1078.214644585996</v>
+        <v>1078.214522017745</v>
       </c>
       <c r="D202" t="n">
-        <v>1057.179855603314</v>
+        <v>1057.179735426235</v>
       </c>
       <c r="E202" t="n">
-        <v>1059.008993235736</v>
+        <v>1059.008872850726</v>
       </c>
       <c r="F202" t="n">
         <v>7099401</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>1078.744140625</v>
+        <v>1078.744262695312</v>
       </c>
       <c r="C203" t="n">
-        <v>1083.942581354496</v>
+        <v>1083.942704013063</v>
       </c>
       <c r="D203" t="n">
-        <v>1072.486645101801</v>
+        <v>1072.486766464017</v>
       </c>
       <c r="E203" t="n">
-        <v>1078.166431640774</v>
+        <v>1078.166553645714</v>
       </c>
       <c r="F203" t="n">
         <v>1382498</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>1083.124267578125</v>
+        <v>1083.124389648438</v>
       </c>
       <c r="C206" t="n">
-        <v>1095.543012399397</v>
+        <v>1095.543135869328</v>
       </c>
       <c r="D206" t="n">
-        <v>1078.166382463439</v>
+        <v>1078.166503974988</v>
       </c>
       <c r="E206" t="n">
-        <v>1088.755989788917</v>
+        <v>1088.756112493936</v>
       </c>
       <c r="F206" t="n">
         <v>1288497</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>1118.0576171875</v>
+        <v>1118.057495117188</v>
       </c>
       <c r="C210" t="n">
-        <v>1119.322655912479</v>
+        <v>1119.322533704049</v>
       </c>
       <c r="D210" t="n">
-        <v>1105.94294117242</v>
+        <v>1105.942820424796</v>
       </c>
       <c r="E210" t="n">
-        <v>1111.246126047106</v>
+        <v>1111.246004720477</v>
       </c>
       <c r="F210" t="n">
         <v>902481</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>1174.690307617188</v>
+        <v>1174.690185546875</v>
       </c>
       <c r="C216" t="n">
-        <v>1182.231601729398</v>
+        <v>1182.231478875417</v>
       </c>
       <c r="D216" t="n">
-        <v>1135.962184607497</v>
+        <v>1135.962066561696</v>
       </c>
       <c r="E216" t="n">
-        <v>1143.357494431907</v>
+        <v>1143.357375617607</v>
       </c>
       <c r="F216" t="n">
         <v>2294942</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>1179.166381835938</v>
+        <v>1179.16650390625</v>
       </c>
       <c r="C218" t="n">
-        <v>1189.578184279222</v>
+        <v>1189.578307427391</v>
       </c>
       <c r="D218" t="n">
-        <v>1170.36005001377</v>
+        <v>1170.360171172429</v>
       </c>
       <c r="E218" t="n">
-        <v>1172.452174462553</v>
+        <v>1172.452295837793</v>
       </c>
       <c r="F218" t="n">
         <v>1077366</v>
@@ -4821,16 +4821,16 @@
         <v>45252</v>
       </c>
       <c r="B220" t="n">
-        <v>1182.669555664062</v>
+        <v>1182.66943359375</v>
       </c>
       <c r="C220" t="n">
-        <v>1185.199514450628</v>
+        <v>1185.199392119183</v>
       </c>
       <c r="D220" t="n">
-        <v>1171.576531525908</v>
+        <v>1171.576410600572</v>
       </c>
       <c r="E220" t="n">
-        <v>1172.549601734817</v>
+        <v>1172.549480709044</v>
       </c>
       <c r="F220" t="n">
         <v>750622</v>
@@ -4861,16 +4861,16 @@
         <v>45254</v>
       </c>
       <c r="B222" t="n">
-        <v>1165.592041015625</v>
+        <v>1165.591918945312</v>
       </c>
       <c r="C222" t="n">
-        <v>1182.231516618386</v>
+        <v>1182.231392805452</v>
       </c>
       <c r="D222" t="n">
-        <v>1162.916098136196</v>
+        <v>1162.91597634613</v>
       </c>
       <c r="E222" t="n">
-        <v>1179.409708244642</v>
+        <v>1179.409584727231</v>
       </c>
       <c r="F222" t="n">
         <v>884921</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>1188.799682617188</v>
+        <v>1188.7998046875</v>
       </c>
       <c r="C224" t="n">
-        <v>1201.352310547213</v>
+        <v>1201.352433906476</v>
       </c>
       <c r="D224" t="n">
-        <v>1174.155049017965</v>
+        <v>1174.155169584513</v>
       </c>
       <c r="E224" t="n">
-        <v>1174.495599793209</v>
+        <v>1174.495720394726</v>
       </c>
       <c r="F224" t="n">
         <v>1898448</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>1190.307983398438</v>
+        <v>1190.30810546875</v>
       </c>
       <c r="C230" t="n">
-        <v>1197.849276569366</v>
+        <v>1197.849399413065</v>
       </c>
       <c r="D230" t="n">
-        <v>1187.242788869144</v>
+        <v>1187.24291062511</v>
       </c>
       <c r="E230" t="n">
-        <v>1192.983926136509</v>
+        <v>1192.984048481249</v>
       </c>
       <c r="F230" t="n">
         <v>1076885</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>1193.130004882812</v>
+        <v>1193.1298828125</v>
       </c>
       <c r="C233" t="n">
-        <v>1211.472353710508</v>
+        <v>1211.472229763572</v>
       </c>
       <c r="D233" t="n">
-        <v>1185.831978655641</v>
+        <v>1185.831857331997</v>
       </c>
       <c r="E233" t="n">
-        <v>1204.612161543775</v>
+        <v>1204.612038298712</v>
       </c>
       <c r="F233" t="n">
         <v>1114846</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>1247.475952148438</v>
+        <v>1247.475830078125</v>
       </c>
       <c r="C242" t="n">
-        <v>1254.044175765444</v>
+        <v>1254.044053052405</v>
       </c>
       <c r="D242" t="n">
-        <v>1226.603644612032</v>
+        <v>1226.603524584155</v>
       </c>
       <c r="E242" t="n">
-        <v>1240.664460990061</v>
+        <v>1240.664339586279</v>
       </c>
       <c r="F242" t="n">
         <v>1720830</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>1251.319580078125</v>
+        <v>1251.319458007812</v>
       </c>
       <c r="C244" t="n">
-        <v>1254.287491710572</v>
+        <v>1254.287369350729</v>
       </c>
       <c r="D244" t="n">
-        <v>1236.334393977791</v>
+        <v>1236.334273369333</v>
       </c>
       <c r="E244" t="n">
-        <v>1250.395210898437</v>
+        <v>1250.395088918299</v>
       </c>
       <c r="F244" t="n">
         <v>2284964</v>

--- a/src/data/raw/TECHM.NS_data.xlsx
+++ b/src/data/raw/TECHM.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>960.431640625</v>
+        <v>960.4315795898438</v>
       </c>
       <c r="C2" t="n">
-        <v>961.3698026411872</v>
+        <v>961.369741546411</v>
       </c>
       <c r="D2" t="n">
-        <v>945.6564906736379</v>
+        <v>945.6564305774382</v>
       </c>
       <c r="E2" t="n">
-        <v>950.3001206812544</v>
+        <v>950.3000602899533</v>
       </c>
       <c r="F2" t="n">
         <v>1439615</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>957.1483154296875</v>
+        <v>957.1482543945312</v>
       </c>
       <c r="C3" t="n">
-        <v>965.638152413256</v>
+        <v>965.6380908367223</v>
       </c>
       <c r="D3" t="n">
-        <v>949.4558446227041</v>
+        <v>949.4557840780792</v>
       </c>
       <c r="E3" t="n">
-        <v>960.4316822277705</v>
+        <v>960.4316209832415</v>
       </c>
       <c r="F3" t="n">
         <v>1702044</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>949.03369140625</v>
+        <v>949.0336303710938</v>
       </c>
       <c r="C4" t="n">
-        <v>961.5104158482922</v>
+        <v>961.510354010721</v>
       </c>
       <c r="D4" t="n">
-        <v>942.3262195537656</v>
+        <v>942.3261589499866</v>
       </c>
       <c r="E4" t="n">
-        <v>957.8049478988497</v>
+        <v>957.8048862995882</v>
       </c>
       <c r="F4" t="n">
         <v>1376035</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>925.1119384765625</v>
+        <v>925.112060546875</v>
       </c>
       <c r="C5" t="n">
-        <v>949.0336074388169</v>
+        <v>949.0337326656401</v>
       </c>
       <c r="D5" t="n">
-        <v>924.0330952086521</v>
+        <v>924.0332171366092</v>
       </c>
       <c r="E5" t="n">
-        <v>947.0166595057201</v>
+        <v>947.016784466403</v>
       </c>
       <c r="F5" t="n">
         <v>2346808</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>952.4108276367188</v>
+        <v>952.4107666015625</v>
       </c>
       <c r="C6" t="n">
-        <v>957.8049298370744</v>
+        <v>957.8048684562376</v>
       </c>
       <c r="D6" t="n">
-        <v>933.7894716393079</v>
+        <v>933.7894117974994</v>
       </c>
       <c r="E6" t="n">
-        <v>936.1816272506005</v>
+        <v>936.181567255491</v>
       </c>
       <c r="F6" t="n">
         <v>2190779</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>944.0617065429688</v>
+        <v>944.0616455078125</v>
       </c>
       <c r="C8" t="n">
-        <v>954.0056513978401</v>
+        <v>954.0055897197914</v>
       </c>
       <c r="D8" t="n">
-        <v>941.1536046769179</v>
+        <v>941.1535438297753</v>
       </c>
       <c r="E8" t="n">
-        <v>946.0317609021972</v>
+        <v>946.0316997396736</v>
       </c>
       <c r="F8" t="n">
         <v>1294200</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>939.5587768554688</v>
+        <v>939.5587158203125</v>
       </c>
       <c r="C9" t="n">
-        <v>950.7691397824234</v>
+        <v>950.7690780190251</v>
       </c>
       <c r="D9" t="n">
-        <v>935.5718317700466</v>
+        <v>935.5717709938884</v>
       </c>
       <c r="E9" t="n">
-        <v>947.4857732414875</v>
+        <v>947.4857116913818</v>
       </c>
       <c r="F9" t="n">
         <v>1948321</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>970.42236328125</v>
+        <v>970.4224243164062</v>
       </c>
       <c r="C11" t="n">
-        <v>971.6419451998734</v>
+        <v>971.6420063117358</v>
       </c>
       <c r="D11" t="n">
-        <v>941.1535423816297</v>
+        <v>941.1536015759102</v>
       </c>
       <c r="E11" t="n">
-        <v>945.7971721084972</v>
+        <v>945.7972315948409</v>
       </c>
       <c r="F11" t="n">
         <v>4286551</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>983.4620971679688</v>
+        <v>983.4620361328125</v>
       </c>
       <c r="C13" t="n">
-        <v>986.4171500496676</v>
+        <v>986.4170888311163</v>
       </c>
       <c r="D13" t="n">
-        <v>978.9123120083958</v>
+        <v>978.9122512556061</v>
       </c>
       <c r="E13" t="n">
-        <v>981.3045249399474</v>
+        <v>981.3044640386934</v>
       </c>
       <c r="F13" t="n">
         <v>1138627</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>988.105712890625</v>
+        <v>988.1057739257812</v>
       </c>
       <c r="C14" t="n">
-        <v>988.7623403658099</v>
+        <v>988.762401441526</v>
       </c>
       <c r="D14" t="n">
-        <v>975.7226623100316</v>
+        <v>975.7227225802885</v>
       </c>
       <c r="E14" t="n">
-        <v>979.2875059274901</v>
+        <v>979.2875664179469</v>
       </c>
       <c r="F14" t="n">
         <v>1768051</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>981.7266845703125</v>
+        <v>981.7265625</v>
       </c>
       <c r="C15" t="n">
-        <v>992.0458374898285</v>
+        <v>992.0457141364071</v>
       </c>
       <c r="D15" t="n">
-        <v>977.3644742968404</v>
+        <v>977.3643527689359</v>
       </c>
       <c r="E15" t="n">
-        <v>987.355313435503</v>
+        <v>987.355190665313</v>
       </c>
       <c r="F15" t="n">
         <v>1160517</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>1004.334838867188</v>
+        <v>1004.334899902344</v>
       </c>
       <c r="C17" t="n">
-        <v>1010.620208877969</v>
+        <v>1010.620270295097</v>
       </c>
       <c r="D17" t="n">
-        <v>999.3629528147875</v>
+        <v>999.3630135477937</v>
       </c>
       <c r="E17" t="n">
-        <v>1003.771998966975</v>
+        <v>1003.772059967926</v>
       </c>
       <c r="F17" t="n">
         <v>1578750</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>971.97021484375</v>
+        <v>971.9702758789062</v>
       </c>
       <c r="C20" t="n">
-        <v>983.0867321563223</v>
+        <v>983.0867938895436</v>
       </c>
       <c r="D20" t="n">
-        <v>955.3658081758297</v>
+        <v>955.3658681683073</v>
       </c>
       <c r="E20" t="n">
-        <v>966.3415868865255</v>
+        <v>966.3416475682305</v>
       </c>
       <c r="F20" t="n">
         <v>2654212</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>952.17626953125</v>
+        <v>952.1763305664062</v>
       </c>
       <c r="C21" t="n">
-        <v>965.1689967100843</v>
+        <v>965.1690585780834</v>
       </c>
       <c r="D21" t="n">
-        <v>934.3991740328631</v>
+        <v>934.3992339284953</v>
       </c>
       <c r="E21" t="n">
-        <v>961.5573165217056</v>
+        <v>961.5573781581935</v>
       </c>
       <c r="F21" t="n">
         <v>5797831</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>953.7241821289062</v>
+        <v>953.7242431640625</v>
       </c>
       <c r="C23" t="n">
-        <v>979.6158493795384</v>
+        <v>979.6159120716748</v>
       </c>
       <c r="D23" t="n">
-        <v>948.5176551508247</v>
+        <v>948.5177158527807</v>
       </c>
       <c r="E23" t="n">
-        <v>963.7150202541585</v>
+        <v>963.715081928695</v>
       </c>
       <c r="F23" t="n">
         <v>3860090</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>943.1235961914062</v>
+        <v>943.12353515625</v>
       </c>
       <c r="C25" t="n">
-        <v>953.4896995802266</v>
+        <v>953.4896378742179</v>
       </c>
       <c r="D25" t="n">
-        <v>935.2904443597467</v>
+        <v>935.2903838315204</v>
       </c>
       <c r="E25" t="n">
-        <v>943.7333871874677</v>
+        <v>943.7333261128482</v>
       </c>
       <c r="F25" t="n">
         <v>2003960</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>953.1143798828125</v>
+        <v>953.1144409179688</v>
       </c>
       <c r="C28" t="n">
-        <v>954.7091693321214</v>
+        <v>954.7092304694041</v>
       </c>
       <c r="D28" t="n">
-        <v>940.5437539381041</v>
+        <v>940.5438141682677</v>
       </c>
       <c r="E28" t="n">
-        <v>948.4707501435242</v>
+        <v>948.4708108813136</v>
       </c>
       <c r="F28" t="n">
         <v>1782899</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>1005.08544921875</v>
+        <v>1005.085388183594</v>
       </c>
       <c r="C32" t="n">
-        <v>1008.462603406279</v>
+        <v>1008.46254216604</v>
       </c>
       <c r="D32" t="n">
-        <v>945.891005306248</v>
+        <v>945.8909478657533</v>
       </c>
       <c r="E32" t="n">
-        <v>952.0825309932108</v>
+        <v>952.0824731767275</v>
       </c>
       <c r="F32" t="n">
         <v>6712218</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>1064.23291015625</v>
+        <v>1064.232788085938</v>
       </c>
       <c r="C36" t="n">
-        <v>1080.64974362563</v>
+        <v>1080.649619672263</v>
       </c>
       <c r="D36" t="n">
-        <v>1061.043445551136</v>
+        <v>1061.043323846663</v>
       </c>
       <c r="E36" t="n">
-        <v>1075.068066051937</v>
+        <v>1075.067942738804</v>
       </c>
       <c r="F36" t="n">
         <v>3494288</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>1056.024536132812</v>
+        <v>1056.0244140625</v>
       </c>
       <c r="C37" t="n">
-        <v>1064.045378043869</v>
+        <v>1064.045255046394</v>
       </c>
       <c r="D37" t="n">
-        <v>1048.801174920031</v>
+        <v>1048.801053684698</v>
       </c>
       <c r="E37" t="n">
-        <v>1052.553594150514</v>
+        <v>1052.553472481423</v>
       </c>
       <c r="F37" t="n">
         <v>2674708</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>1045.001708984375</v>
+        <v>1045.001586914062</v>
       </c>
       <c r="C40" t="n">
-        <v>1049.035605093783</v>
+        <v>1049.035482552256</v>
       </c>
       <c r="D40" t="n">
-        <v>1028.960141145446</v>
+        <v>1028.960020949005</v>
       </c>
       <c r="E40" t="n">
-        <v>1040.358136417621</v>
+        <v>1040.358014889741</v>
       </c>
       <c r="F40" t="n">
         <v>2247105</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>1032.149780273438</v>
+        <v>1032.149658203125</v>
       </c>
       <c r="C41" t="n">
-        <v>1065.217973642798</v>
+        <v>1065.217847661575</v>
       </c>
       <c r="D41" t="n">
-        <v>1028.866413555912</v>
+        <v>1028.866291873917</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.801140055172</v>
+        <v>1048.801016015536</v>
       </c>
       <c r="F41" t="n">
         <v>3894204</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>1041.108642578125</v>
+        <v>1041.108764648438</v>
       </c>
       <c r="C43" t="n">
-        <v>1054.429683521344</v>
+        <v>1054.429807153553</v>
       </c>
       <c r="D43" t="n">
-        <v>1036.605694209151</v>
+        <v>1036.605815751491</v>
       </c>
       <c r="E43" t="n">
-        <v>1050.677264718777</v>
+        <v>1050.677387911014</v>
       </c>
       <c r="F43" t="n">
         <v>1838692</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>1017.984497070312</v>
+        <v>1017.984313964844</v>
       </c>
       <c r="C44" t="n">
-        <v>1050.302163225952</v>
+        <v>1050.301974307486</v>
       </c>
       <c r="D44" t="n">
-        <v>1015.451545275942</v>
+        <v>1015.451362626076</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.80121837452</v>
+        <v>1048.80102972603</v>
       </c>
       <c r="F44" t="n">
         <v>2388401</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>1022.580993652344</v>
+        <v>1022.5810546875</v>
       </c>
       <c r="C45" t="n">
-        <v>1028.162670372656</v>
+        <v>1028.162731740968</v>
       </c>
       <c r="D45" t="n">
-        <v>1017.843519483879</v>
+        <v>1017.843580236268</v>
       </c>
       <c r="E45" t="n">
-        <v>1024.410251867646</v>
+        <v>1024.410313011986</v>
       </c>
       <c r="F45" t="n">
         <v>2076844</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>1011.558288574219</v>
+        <v>1011.558471679688</v>
       </c>
       <c r="C46" t="n">
-        <v>1021.033122623847</v>
+        <v>1021.033307444386</v>
       </c>
       <c r="D46" t="n">
-        <v>1003.396709421086</v>
+        <v>1003.396891049201</v>
       </c>
       <c r="E46" t="n">
-        <v>1013.153020671236</v>
+        <v>1013.153204065373</v>
       </c>
       <c r="F46" t="n">
         <v>2230530</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>994.3910522460938</v>
+        <v>994.39111328125</v>
       </c>
       <c r="C47" t="n">
-        <v>1016.295775635548</v>
+        <v>1016.295838015203</v>
       </c>
       <c r="D47" t="n">
-        <v>991.9050517125302</v>
+        <v>991.9051125950971</v>
       </c>
       <c r="E47" t="n">
-        <v>1015.029357104032</v>
+        <v>1015.029419405955</v>
       </c>
       <c r="F47" t="n">
         <v>2550755</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>1063.623291015625</v>
+        <v>1063.623168945312</v>
       </c>
       <c r="C49" t="n">
-        <v>1092.610638349831</v>
+        <v>1092.610512952688</v>
       </c>
       <c r="D49" t="n">
-        <v>1055.367922791446</v>
+        <v>1055.367801668589</v>
       </c>
       <c r="E49" t="n">
-        <v>1055.367922791446</v>
+        <v>1055.367801668589</v>
       </c>
       <c r="F49" t="n">
         <v>13080169</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>1046.268310546875</v>
+        <v>1046.268188476562</v>
       </c>
       <c r="C50" t="n">
-        <v>1067.7977695162</v>
+        <v>1067.797644934</v>
       </c>
       <c r="D50" t="n">
-        <v>1030.41431680727</v>
+        <v>1030.414196586676</v>
       </c>
       <c r="E50" t="n">
-        <v>1058.18219548805</v>
+        <v>1058.18207202772</v>
       </c>
       <c r="F50" t="n">
         <v>4325522</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>1045.423950195312</v>
+        <v>1045.423828125</v>
       </c>
       <c r="C51" t="n">
-        <v>1062.122145938913</v>
+        <v>1062.122021918814</v>
       </c>
       <c r="D51" t="n">
-        <v>1041.812269831861</v>
+        <v>1041.812148183271</v>
       </c>
       <c r="E51" t="n">
-        <v>1055.274050012766</v>
+        <v>1055.273926792293</v>
       </c>
       <c r="F51" t="n">
         <v>2583351</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>1048.566650390625</v>
+        <v>1048.566528320312</v>
       </c>
       <c r="C52" t="n">
-        <v>1053.116435811894</v>
+        <v>1053.116313211911</v>
       </c>
       <c r="D52" t="n">
-        <v>1032.900345884269</v>
+        <v>1032.90022563777</v>
       </c>
       <c r="E52" t="n">
-        <v>1037.543918883499</v>
+        <v>1037.543798096413</v>
       </c>
       <c r="F52" t="n">
         <v>2396839</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>1040.358276367188</v>
+        <v>1040.358154296875</v>
       </c>
       <c r="C54" t="n">
-        <v>1066.437636945863</v>
+        <v>1066.437511815532</v>
       </c>
       <c r="D54" t="n">
-        <v>1028.162913343947</v>
+        <v>1028.162792704576</v>
       </c>
       <c r="E54" t="n">
-        <v>1066.437636945863</v>
+        <v>1066.437511815532</v>
       </c>
       <c r="F54" t="n">
         <v>4007438</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>1027.83447265625</v>
+        <v>1027.834594726562</v>
       </c>
       <c r="C55" t="n">
-        <v>1041.155514046537</v>
+        <v>1041.155637698917</v>
       </c>
       <c r="D55" t="n">
-        <v>1019.203840411853</v>
+        <v>1019.203961457152</v>
       </c>
       <c r="E55" t="n">
-        <v>1036.558777956174</v>
+        <v>1036.558901062625</v>
       </c>
       <c r="F55" t="n">
         <v>3354949</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>1034.729614257812</v>
+        <v>1034.7294921875</v>
       </c>
       <c r="C59" t="n">
-        <v>1044.720453472499</v>
+        <v>1044.720330223536</v>
       </c>
       <c r="D59" t="n">
-        <v>1022.628039202618</v>
+        <v>1022.627918559967</v>
       </c>
       <c r="E59" t="n">
-        <v>1022.628039202618</v>
+        <v>1022.627918559967</v>
       </c>
       <c r="F59" t="n">
         <v>1455300</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>1004.053466796875</v>
+        <v>1004.053527832031</v>
       </c>
       <c r="C60" t="n">
-        <v>1036.230388034773</v>
+        <v>1036.230451025924</v>
       </c>
       <c r="D60" t="n">
-        <v>1000.207146066094</v>
+        <v>1000.207206867437</v>
       </c>
       <c r="E60" t="n">
-        <v>1030.977024823966</v>
+        <v>1030.977087495771</v>
       </c>
       <c r="F60" t="n">
         <v>2431154</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>1014.184936523438</v>
+        <v>1014.184997558594</v>
       </c>
       <c r="C61" t="n">
-        <v>1020.095041754347</v>
+        <v>1020.095103145182</v>
       </c>
       <c r="D61" t="n">
-        <v>999.1752617932349</v>
+        <v>999.1753219250866</v>
       </c>
       <c r="E61" t="n">
-        <v>1009.119148399048</v>
+        <v>1009.119209129338</v>
       </c>
       <c r="F61" t="n">
         <v>1642278</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>1034.917114257812</v>
+        <v>1034.9169921875</v>
       </c>
       <c r="C63" t="n">
-        <v>1036.605748613486</v>
+        <v>1036.605626343996</v>
       </c>
       <c r="D63" t="n">
-        <v>1017.937441187997</v>
+        <v>1017.937321120467</v>
       </c>
       <c r="E63" t="n">
-        <v>1036.230483810587</v>
+        <v>1036.230361585361</v>
       </c>
       <c r="F63" t="n">
         <v>1508662</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>1038.716430664062</v>
+        <v>1038.716552734375</v>
       </c>
       <c r="C66" t="n">
-        <v>1042.937901820521</v>
+        <v>1042.938024386942</v>
       </c>
       <c r="D66" t="n">
-        <v>1023.331490657579</v>
+        <v>1023.331610919848</v>
       </c>
       <c r="E66" t="n">
-        <v>1028.491066515473</v>
+        <v>1028.491187384097</v>
       </c>
       <c r="F66" t="n">
         <v>940829</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>1041.202392578125</v>
+        <v>1041.202514648438</v>
       </c>
       <c r="C68" t="n">
-        <v>1044.579546475639</v>
+        <v>1044.579668941888</v>
       </c>
       <c r="D68" t="n">
-        <v>1023.284616345297</v>
+        <v>1023.284736314934</v>
       </c>
       <c r="E68" t="n">
-        <v>1034.729447474297</v>
+        <v>1034.729568785723</v>
       </c>
       <c r="F68" t="n">
         <v>1376719</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>1019.579162597656</v>
+        <v>1019.579040527344</v>
       </c>
       <c r="C69" t="n">
-        <v>1032.14978961866</v>
+        <v>1032.149666043314</v>
       </c>
       <c r="D69" t="n">
-        <v>1009.40074858412</v>
+        <v>1009.40062773243</v>
       </c>
       <c r="E69" t="n">
-        <v>1032.14978961866</v>
+        <v>1032.149666043314</v>
       </c>
       <c r="F69" t="n">
         <v>2725180</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>966.2008666992188</v>
+        <v>966.200927734375</v>
       </c>
       <c r="C70" t="n">
-        <v>973.7526551583139</v>
+        <v>973.7527166705186</v>
       </c>
       <c r="D70" t="n">
-        <v>939.9808867713203</v>
+        <v>939.9809461501537</v>
       </c>
       <c r="E70" t="n">
-        <v>970.9383411260644</v>
+        <v>970.9384024604882</v>
       </c>
       <c r="F70" t="n">
         <v>4349422</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>961.744873046875</v>
+        <v>961.7449340820312</v>
       </c>
       <c r="C71" t="n">
-        <v>973.5181325979902</v>
+        <v>973.5181943803123</v>
       </c>
       <c r="D71" t="n">
-        <v>948.4238323840694</v>
+        <v>948.4238925738334</v>
       </c>
       <c r="E71" t="n">
-        <v>970.7507695952448</v>
+        <v>970.7508312019419</v>
       </c>
       <c r="F71" t="n">
         <v>2735592</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>951.1443481445312</v>
+        <v>951.1444091796875</v>
       </c>
       <c r="C72" t="n">
-        <v>965.3097057634789</v>
+        <v>965.3097677076294</v>
       </c>
       <c r="D72" t="n">
-        <v>947.4857170273214</v>
+        <v>947.4857778277023</v>
       </c>
       <c r="E72" t="n">
-        <v>961.7448622103552</v>
+        <v>961.7449239257489</v>
       </c>
       <c r="F72" t="n">
         <v>1953837</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>936.9320678710938</v>
+        <v>936.93212890625</v>
       </c>
       <c r="C74" t="n">
-        <v>956.4915279369703</v>
+        <v>956.4915902463008</v>
       </c>
       <c r="D74" t="n">
-        <v>932.3353319442988</v>
+        <v>932.3353926800071</v>
       </c>
       <c r="E74" t="n">
-        <v>951.5195844850978</v>
+        <v>951.5196464705379</v>
       </c>
       <c r="F74" t="n">
         <v>4269272</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>943.8270874023438</v>
+        <v>943.8271484375</v>
       </c>
       <c r="C75" t="n">
-        <v>945.0935630637027</v>
+        <v>945.0936241807591</v>
       </c>
       <c r="D75" t="n">
-        <v>929.6617297610002</v>
+        <v>929.6617898801148</v>
       </c>
       <c r="E75" t="n">
-        <v>939.98088115088</v>
+        <v>939.9809419373108</v>
       </c>
       <c r="F75" t="n">
         <v>1625433</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>960.3377685546875</v>
+        <v>960.3378295898438</v>
       </c>
       <c r="C79" t="n">
-        <v>963.1520253261485</v>
+        <v>963.1520865401675</v>
       </c>
       <c r="D79" t="n">
-        <v>920.3275812085919</v>
+        <v>920.3276397008636</v>
       </c>
       <c r="E79" t="n">
-        <v>921.1718983201861</v>
+        <v>921.1719568661191</v>
       </c>
       <c r="F79" t="n">
         <v>5146250</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>988.2462768554688</v>
+        <v>988.246337890625</v>
       </c>
       <c r="C80" t="n">
-        <v>999.8319606499514</v>
+        <v>999.8320224006519</v>
       </c>
       <c r="D80" t="n">
-        <v>957.2419875369103</v>
+        <v>957.2420466572081</v>
       </c>
       <c r="E80" t="n">
-        <v>957.2419875369103</v>
+        <v>957.2420466572081</v>
       </c>
       <c r="F80" t="n">
         <v>4762884</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>975.2536010742188</v>
+        <v>975.253662109375</v>
       </c>
       <c r="C81" t="n">
-        <v>985.7134911446769</v>
+        <v>985.7135528344537</v>
       </c>
       <c r="D81" t="n">
-        <v>973.9871826609192</v>
+        <v>973.987243616818</v>
       </c>
       <c r="E81" t="n">
-        <v>975.5350782837214</v>
+        <v>975.5351393364936</v>
       </c>
       <c r="F81" t="n">
         <v>2217136</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>980.7415161132812</v>
+        <v>980.7415771484375</v>
       </c>
       <c r="C82" t="n">
-        <v>982.2425752501256</v>
+        <v>982.2426363786982</v>
       </c>
       <c r="D82" t="n">
-        <v>965.1690009437634</v>
+        <v>965.1690610097846</v>
       </c>
       <c r="E82" t="n">
-        <v>969.0621583648265</v>
+        <v>969.0622186731332</v>
       </c>
       <c r="F82" t="n">
         <v>1744298</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>972.2517700195312</v>
+        <v>972.2518310546875</v>
       </c>
       <c r="C83" t="n">
-        <v>985.6665990179125</v>
+        <v>985.666660895213</v>
       </c>
       <c r="D83" t="n">
-        <v>967.7019849588399</v>
+        <v>967.7020457083738</v>
       </c>
       <c r="E83" t="n">
-        <v>981.2575525703844</v>
+        <v>981.2576141708978</v>
       </c>
       <c r="F83" t="n">
         <v>1222282</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>981.3982543945312</v>
+        <v>981.3983154296875</v>
       </c>
       <c r="C86" t="n">
-        <v>985.9480392846679</v>
+        <v>985.9481006027845</v>
       </c>
       <c r="D86" t="n">
-        <v>973.8934167976927</v>
+        <v>973.8934773661077</v>
       </c>
       <c r="E86" t="n">
-        <v>983.1337251858533</v>
+        <v>983.1337863289421</v>
       </c>
       <c r="F86" t="n">
         <v>1186977</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>979.4283447265625</v>
+        <v>979.4282836914062</v>
       </c>
       <c r="C87" t="n">
-        <v>993.2653902790549</v>
+        <v>993.2653283816139</v>
       </c>
       <c r="D87" t="n">
-        <v>978.3963378532254</v>
+        <v>978.3962768823809</v>
       </c>
       <c r="E87" t="n">
-        <v>989.700546296922</v>
+        <v>989.7004846216317</v>
       </c>
       <c r="F87" t="n">
         <v>1451786</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>998.5654907226562</v>
+        <v>998.5656127929688</v>
       </c>
       <c r="C89" t="n">
-        <v>1003.678229988197</v>
+        <v>1003.67835268352</v>
       </c>
       <c r="D89" t="n">
-        <v>977.5050862536975</v>
+        <v>977.5052057494668</v>
       </c>
       <c r="E89" t="n">
-        <v>981.2575050109094</v>
+        <v>981.2576249653956</v>
       </c>
       <c r="F89" t="n">
         <v>2122222</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>988.903076171875</v>
+        <v>988.9031372070312</v>
       </c>
       <c r="C91" t="n">
-        <v>1000.3948585582</v>
+        <v>1000.39492030263</v>
       </c>
       <c r="D91" t="n">
-        <v>974.6907672972696</v>
+        <v>974.6908274552413</v>
       </c>
       <c r="E91" t="n">
-        <v>992.5147563046306</v>
+        <v>992.5148175627</v>
       </c>
       <c r="F91" t="n">
         <v>2803566</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>983.7903442382812</v>
+        <v>983.7904052734375</v>
       </c>
       <c r="C92" t="n">
-        <v>994.344022018387</v>
+        <v>994.3440837083022</v>
       </c>
       <c r="D92" t="n">
-        <v>980.3663537258554</v>
+        <v>980.3664145485845</v>
       </c>
       <c r="E92" t="n">
-        <v>993.4528683672935</v>
+        <v>993.4529300019207</v>
       </c>
       <c r="F92" t="n">
         <v>909923</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>1005.788879394531</v>
+        <v>1005.789123535156</v>
       </c>
       <c r="C93" t="n">
-        <v>1011.980346910693</v>
+        <v>1011.980592554206</v>
       </c>
       <c r="D93" t="n">
-        <v>984.071734794268</v>
+        <v>984.071973663372</v>
       </c>
       <c r="E93" t="n">
-        <v>991.1544703977708</v>
+        <v>991.1547109861058</v>
       </c>
       <c r="F93" t="n">
         <v>2624323</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>1023.003112792969</v>
+        <v>1023.003173828125</v>
       </c>
       <c r="C95" t="n">
-        <v>1049.926670230689</v>
+        <v>1049.926732872178</v>
       </c>
       <c r="D95" t="n">
-        <v>1019.156906661113</v>
+        <v>1019.156967466794</v>
       </c>
       <c r="E95" t="n">
-        <v>1035.667525468535</v>
+        <v>1035.667587259285</v>
       </c>
       <c r="F95" t="n">
         <v>1414119</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>1045.752319335938</v>
+        <v>1045.752197265625</v>
       </c>
       <c r="C98" t="n">
-        <v>1051.052634326124</v>
+        <v>1051.052511637108</v>
       </c>
       <c r="D98" t="n">
-        <v>1030.977168827266</v>
+        <v>1030.977048481652</v>
       </c>
       <c r="E98" t="n">
-        <v>1030.977168827266</v>
+        <v>1030.977048481652</v>
       </c>
       <c r="F98" t="n">
         <v>2104054</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>1030.414184570312</v>
+        <v>1030.414306640625</v>
       </c>
       <c r="C100" t="n">
-        <v>1051.427751920954</v>
+        <v>1051.427876480686</v>
       </c>
       <c r="D100" t="n">
-        <v>1027.224605813699</v>
+        <v>1027.22472750615</v>
       </c>
       <c r="E100" t="n">
-        <v>1045.98669907057</v>
+        <v>1045.986822985715</v>
       </c>
       <c r="F100" t="n">
         <v>2822485</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>1053.585327148438</v>
+        <v>1053.58544921875</v>
       </c>
       <c r="C103" t="n">
-        <v>1068.688789363315</v>
+        <v>1068.688913183542</v>
       </c>
       <c r="D103" t="n">
-        <v>1048.425751487069</v>
+        <v>1048.425872959584</v>
       </c>
       <c r="E103" t="n">
-        <v>1058.18206291333</v>
+        <v>1058.182185516228</v>
       </c>
       <c r="F103" t="n">
         <v>1907589</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>1040.686279296875</v>
+        <v>1040.6865234375</v>
       </c>
       <c r="C104" t="n">
-        <v>1064.326583112241</v>
+        <v>1064.326832798782</v>
       </c>
       <c r="D104" t="n">
-        <v>1038.950808749537</v>
+        <v>1038.951052483028</v>
       </c>
       <c r="E104" t="n">
-        <v>1054.52332167074</v>
+        <v>1054.523569057477</v>
       </c>
       <c r="F104" t="n">
         <v>1754521</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>1004.991638183594</v>
+        <v>1004.99169921875</v>
       </c>
       <c r="C107" t="n">
-        <v>1033.322355086377</v>
+        <v>1033.322417842114</v>
       </c>
       <c r="D107" t="n">
-        <v>1002.833951509157</v>
+        <v>1002.834012413273</v>
       </c>
       <c r="E107" t="n">
-        <v>1032.85330272365</v>
+        <v>1032.853365450901</v>
       </c>
       <c r="F107" t="n">
         <v>4054486</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>997.2523193359375</v>
+        <v>997.2522583007812</v>
       </c>
       <c r="C108" t="n">
-        <v>1012.215044578255</v>
+        <v>1012.21498262733</v>
       </c>
       <c r="D108" t="n">
-        <v>994.4848415617485</v>
+        <v>994.484780695971</v>
       </c>
       <c r="E108" t="n">
-        <v>1012.215044578255</v>
+        <v>1012.21498262733</v>
       </c>
       <c r="F108" t="n">
         <v>2782697</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>1008.22802734375</v>
+        <v>1008.228088378906</v>
       </c>
       <c r="C109" t="n">
-        <v>1012.214972322779</v>
+        <v>1012.215033599293</v>
       </c>
       <c r="D109" t="n">
-        <v>996.4079310147533</v>
+        <v>996.4079913343558</v>
       </c>
       <c r="E109" t="n">
-        <v>1000.019611210456</v>
+        <v>1000.019671748699</v>
       </c>
       <c r="F109" t="n">
         <v>1767945</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>1012.59033203125</v>
+        <v>1012.590393066406</v>
       </c>
       <c r="C110" t="n">
-        <v>1020.564222736818</v>
+        <v>1020.564284252611</v>
       </c>
       <c r="D110" t="n">
-        <v>1008.837912875688</v>
+        <v>1008.837973684663</v>
       </c>
       <c r="E110" t="n">
-        <v>1012.731070652532</v>
+        <v>1012.731131696172</v>
       </c>
       <c r="F110" t="n">
         <v>1846534</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>1010.901550292969</v>
+        <v>1010.901672363281</v>
       </c>
       <c r="C111" t="n">
-        <v>1017.796596583592</v>
+        <v>1017.796719486508</v>
       </c>
       <c r="D111" t="n">
-        <v>1004.757033529986</v>
+        <v>1004.757154858324</v>
       </c>
       <c r="E111" t="n">
-        <v>1013.153024361161</v>
+        <v>1013.153146703348</v>
       </c>
       <c r="F111" t="n">
         <v>1321534</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>1014.560302734375</v>
+        <v>1014.560363769531</v>
       </c>
       <c r="C112" t="n">
-        <v>1016.436512263241</v>
+        <v>1016.436573411269</v>
       </c>
       <c r="D112" t="n">
-        <v>1003.162306943565</v>
+        <v>1003.162367293026</v>
       </c>
       <c r="E112" t="n">
-        <v>1012.168089779174</v>
+        <v>1012.168150670417</v>
       </c>
       <c r="F112" t="n">
         <v>1389325</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>1049.786254882812</v>
+        <v>1049.7861328125</v>
       </c>
       <c r="C117" t="n">
-        <v>1056.540563846899</v>
+        <v>1056.540440991188</v>
       </c>
       <c r="D117" t="n">
-        <v>1041.671625207587</v>
+        <v>1041.671504080852</v>
       </c>
       <c r="E117" t="n">
-        <v>1047.769306597158</v>
+        <v>1047.769184761379</v>
       </c>
       <c r="F117" t="n">
         <v>2360795</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>1046.455810546875</v>
+        <v>1046.455932617188</v>
       </c>
       <c r="C118" t="n">
-        <v>1048.801072336536</v>
+        <v>1048.801194680426</v>
       </c>
       <c r="D118" t="n">
-        <v>1026.333510197475</v>
+        <v>1026.333629920498</v>
       </c>
       <c r="E118" t="n">
-        <v>1045.048653473078</v>
+        <v>1045.048775379244</v>
       </c>
       <c r="F118" t="n">
         <v>3492348</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>1052.037475585938</v>
+        <v>1052.037353515625</v>
       </c>
       <c r="C123" t="n">
-        <v>1066.531261986609</v>
+        <v>1066.531138234549</v>
       </c>
       <c r="D123" t="n">
-        <v>1046.080533612307</v>
+        <v>1046.080412233192</v>
       </c>
       <c r="E123" t="n">
-        <v>1065.686944849187</v>
+        <v>1065.686821195095</v>
       </c>
       <c r="F123" t="n">
         <v>1899656</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>1076.944091796875</v>
+        <v>1076.944213867188</v>
       </c>
       <c r="C124" t="n">
-        <v>1084.448928673508</v>
+        <v>1084.449051594485</v>
       </c>
       <c r="D124" t="n">
-        <v>1050.770950286672</v>
+        <v>1050.77106939029</v>
       </c>
       <c r="E124" t="n">
-        <v>1054.007479898554</v>
+        <v>1054.007599369029</v>
       </c>
       <c r="F124" t="n">
         <v>2773593</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>1102.273193359375</v>
+        <v>1102.273071289062</v>
       </c>
       <c r="C125" t="n">
-        <v>1111.607290765326</v>
+        <v>1111.607167661317</v>
       </c>
       <c r="D125" t="n">
-        <v>1075.537205265126</v>
+        <v>1075.537086155668</v>
       </c>
       <c r="E125" t="n">
-        <v>1079.5711019063</v>
+        <v>1079.570982350111</v>
       </c>
       <c r="F125" t="n">
         <v>3732838</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>1084.448974609375</v>
+        <v>1084.449096679688</v>
       </c>
       <c r="C127" t="n">
-        <v>1110.997381990911</v>
+        <v>1110.997507049628</v>
       </c>
       <c r="D127" t="n">
-        <v>1079.992977525124</v>
+        <v>1079.99309909385</v>
       </c>
       <c r="E127" t="n">
-        <v>1097.5824396998</v>
+        <v>1097.582563248473</v>
       </c>
       <c r="F127" t="n">
         <v>2261102</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>1076.146728515625</v>
+        <v>1076.146850585938</v>
       </c>
       <c r="C128" t="n">
-        <v>1088.15439883991</v>
+        <v>1088.154522272286</v>
       </c>
       <c r="D128" t="n">
-        <v>1065.31157444157</v>
+        <v>1065.311695282821</v>
       </c>
       <c r="E128" t="n">
-        <v>1088.15439883991</v>
+        <v>1088.154522272286</v>
       </c>
       <c r="F128" t="n">
         <v>2088505</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>1087.638793945312</v>
+        <v>1087.638671875</v>
       </c>
       <c r="C130" t="n">
-        <v>1096.644577668209</v>
+        <v>1096.644454587139</v>
       </c>
       <c r="D130" t="n">
-        <v>1082.05700133815</v>
+        <v>1082.056879894305</v>
       </c>
       <c r="E130" t="n">
-        <v>1093.830263097632</v>
+        <v>1093.830140332424</v>
       </c>
       <c r="F130" t="n">
         <v>1274203</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>1102.507568359375</v>
+        <v>1102.507690429688</v>
       </c>
       <c r="C131" t="n">
-        <v>1118.127034796194</v>
+        <v>1118.127158595904</v>
       </c>
       <c r="D131" t="n">
-        <v>1082.103790770082</v>
+        <v>1082.103910581276</v>
       </c>
       <c r="E131" t="n">
-        <v>1087.638631501849</v>
+        <v>1087.638751925864</v>
       </c>
       <c r="F131" t="n">
         <v>3215610</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>1165.501220703125</v>
+        <v>1165.501342773438</v>
       </c>
       <c r="C133" t="n">
-        <v>1192.096464185913</v>
+        <v>1192.096589041714</v>
       </c>
       <c r="D133" t="n">
-        <v>1145.097444904547</v>
+        <v>1145.097564837843</v>
       </c>
       <c r="E133" t="n">
-        <v>1159.403540579412</v>
+        <v>1159.403662011076</v>
       </c>
       <c r="F133" t="n">
         <v>4880073</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>1170.33251953125</v>
+        <v>1170.332641601562</v>
       </c>
       <c r="C134" t="n">
-        <v>1180.510932234027</v>
+        <v>1180.511055365989</v>
       </c>
       <c r="D134" t="n">
-        <v>1149.178213549408</v>
+        <v>1149.178333413243</v>
       </c>
       <c r="E134" t="n">
-        <v>1166.064097503603</v>
+        <v>1166.064219128702</v>
       </c>
       <c r="F134" t="n">
         <v>2666872</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>1167.658813476562</v>
+        <v>1167.658935546875</v>
       </c>
       <c r="C135" t="n">
-        <v>1183.606592546059</v>
+        <v>1183.606716283596</v>
       </c>
       <c r="D135" t="n">
-        <v>1154.900613123911</v>
+        <v>1154.900733860446</v>
       </c>
       <c r="E135" t="n">
-        <v>1177.321337189266</v>
+        <v>1177.321460269726</v>
       </c>
       <c r="F135" t="n">
         <v>2293881</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>1175.398315429688</v>
+        <v>1175.398193359375</v>
       </c>
       <c r="C136" t="n">
-        <v>1177.790528378049</v>
+        <v>1177.790406059294</v>
       </c>
       <c r="D136" t="n">
-        <v>1159.12222071626</v>
+        <v>1159.122100336293</v>
       </c>
       <c r="E136" t="n">
-        <v>1167.940428379666</v>
+        <v>1167.940307083888</v>
       </c>
       <c r="F136" t="n">
         <v>2000345</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>1150.512817382812</v>
+        <v>1150.5126953125</v>
       </c>
       <c r="C137" t="n">
-        <v>1172.51029903753</v>
+        <v>1172.510174633268</v>
       </c>
       <c r="D137" t="n">
-        <v>1136.938888031461</v>
+        <v>1136.938767401353</v>
       </c>
       <c r="E137" t="n">
-        <v>1154.748684330006</v>
+        <v>1154.748561810265</v>
       </c>
       <c r="F137" t="n">
         <v>5032086</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>1118.503173828125</v>
+        <v>1118.503295898438</v>
       </c>
       <c r="C138" t="n">
-        <v>1159.032465303309</v>
+        <v>1159.032591796875</v>
       </c>
       <c r="D138" t="n">
-        <v>1112.149432987931</v>
+        <v>1112.149554364814</v>
       </c>
       <c r="E138" t="n">
-        <v>1151.860460134221</v>
+        <v>1151.860585845055</v>
       </c>
       <c r="F138" t="n">
         <v>2669308</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>1100.549194335938</v>
+        <v>1100.549072265625</v>
       </c>
       <c r="C140" t="n">
-        <v>1123.461305674027</v>
+        <v>1123.461181062358</v>
       </c>
       <c r="D140" t="n">
-        <v>1096.939100166034</v>
+        <v>1096.938978496145</v>
       </c>
       <c r="E140" t="n">
-        <v>1114.797079666258</v>
+        <v>1114.796956015604</v>
       </c>
       <c r="F140" t="n">
         <v>3170213</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>1058.864624023438</v>
+        <v>1058.864501953125</v>
       </c>
       <c r="C141" t="n">
-        <v>1083.028162183153</v>
+        <v>1083.028037327167</v>
       </c>
       <c r="D141" t="n">
-        <v>1041.92127361161</v>
+        <v>1041.921153494597</v>
       </c>
       <c r="E141" t="n">
-        <v>1069.550478387096</v>
+        <v>1069.550355084874</v>
       </c>
       <c r="F141" t="n">
         <v>17594818</v>
@@ -3281,16 +3281,16 @@
         <v>45138</v>
       </c>
       <c r="B143" t="n">
-        <v>1073.882568359375</v>
+        <v>1073.882446289062</v>
       </c>
       <c r="C143" t="n">
-        <v>1077.25198923724</v>
+        <v>1077.251866783918</v>
       </c>
       <c r="D143" t="n">
-        <v>1046.590282751888</v>
+        <v>1046.590163783942</v>
       </c>
       <c r="E143" t="n">
-        <v>1054.147388931883</v>
+        <v>1054.147269104907</v>
       </c>
       <c r="F143" t="n">
         <v>4766331</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>1100.837768554688</v>
+        <v>1100.837890625</v>
       </c>
       <c r="C144" t="n">
-        <v>1111.427375423163</v>
+        <v>1111.427498667742</v>
       </c>
       <c r="D144" t="n">
-        <v>1078.118271867352</v>
+        <v>1078.118391418332</v>
       </c>
       <c r="E144" t="n">
-        <v>1078.21451751749</v>
+        <v>1078.214637079143</v>
       </c>
       <c r="F144" t="n">
         <v>3805214</v>
@@ -3341,16 +3341,16 @@
         <v>45141</v>
       </c>
       <c r="B146" t="n">
-        <v>1100.164184570312</v>
+        <v>1100.163940429688</v>
       </c>
       <c r="C146" t="n">
-        <v>1104.159261340514</v>
+        <v>1104.15901631333</v>
       </c>
       <c r="D146" t="n">
-        <v>1079.466311838755</v>
+        <v>1079.466072291255</v>
       </c>
       <c r="E146" t="n">
-        <v>1097.468600650002</v>
+        <v>1097.468357107562</v>
       </c>
       <c r="F146" t="n">
         <v>2348236</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>1131.355224609375</v>
+        <v>1131.355102539062</v>
       </c>
       <c r="C147" t="n">
-        <v>1137.757147837101</v>
+        <v>1137.757025076037</v>
       </c>
       <c r="D147" t="n">
-        <v>1100.164107934393</v>
+        <v>1100.163989229522</v>
       </c>
       <c r="E147" t="n">
-        <v>1110.898026241577</v>
+        <v>1110.897906378544</v>
       </c>
       <c r="F147" t="n">
         <v>3580506</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>1139.489868164062</v>
+        <v>1139.489990234375</v>
       </c>
       <c r="C148" t="n">
-        <v>1148.346583351599</v>
+        <v>1148.346706370706</v>
       </c>
       <c r="D148" t="n">
-        <v>1128.37073383805</v>
+        <v>1128.370854717201</v>
       </c>
       <c r="E148" t="n">
-        <v>1135.976020529552</v>
+        <v>1135.976142223436</v>
       </c>
       <c r="F148" t="n">
         <v>1694290</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>1160.428466796875</v>
+        <v>1160.428588867188</v>
       </c>
       <c r="C149" t="n">
-        <v>1163.79788736393</v>
+        <v>1163.798009788686</v>
       </c>
       <c r="D149" t="n">
-        <v>1131.258864595661</v>
+        <v>1131.258983597502</v>
       </c>
       <c r="E149" t="n">
-        <v>1141.752226436273</v>
+        <v>1141.752346541954</v>
       </c>
       <c r="F149" t="n">
         <v>5137402</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>1189.694458007812</v>
+        <v>1189.6943359375</v>
       </c>
       <c r="C151" t="n">
-        <v>1192.96751579735</v>
+        <v>1192.9673933912</v>
       </c>
       <c r="D151" t="n">
-        <v>1170.248015025089</v>
+        <v>1170.247894950107</v>
       </c>
       <c r="E151" t="n">
-        <v>1174.483882037292</v>
+        <v>1174.483761527683</v>
       </c>
       <c r="F151" t="n">
         <v>3715680</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>1174.2431640625</v>
+        <v>1174.243041992188</v>
       </c>
       <c r="C153" t="n">
-        <v>1175.639019977071</v>
+        <v>1175.638897761651</v>
       </c>
       <c r="D153" t="n">
-        <v>1158.118078595767</v>
+        <v>1158.117958201764</v>
       </c>
       <c r="E153" t="n">
-        <v>1166.878549286419</v>
+        <v>1166.878427981707</v>
       </c>
       <c r="F153" t="n">
         <v>1842625</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>1185.795532226562</v>
+        <v>1185.79541015625</v>
       </c>
       <c r="C155" t="n">
-        <v>1187.865342938455</v>
+        <v>1187.865220655068</v>
       </c>
       <c r="D155" t="n">
-        <v>1169.237281563584</v>
+        <v>1169.23716119784</v>
       </c>
       <c r="E155" t="n">
-        <v>1179.297363083044</v>
+        <v>1179.297241681677</v>
       </c>
       <c r="F155" t="n">
         <v>2636308</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>1156.192626953125</v>
+        <v>1156.192749023438</v>
       </c>
       <c r="C159" t="n">
-        <v>1173.376648738099</v>
+        <v>1173.376772622693</v>
       </c>
       <c r="D159" t="n">
-        <v>1154.459735043688</v>
+        <v>1154.459856931043</v>
       </c>
       <c r="E159" t="n">
-        <v>1167.937417622659</v>
+        <v>1167.937540932981</v>
       </c>
       <c r="F159" t="n">
         <v>1569035</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>1145.121704101562</v>
+        <v>1145.12158203125</v>
       </c>
       <c r="C161" t="n">
-        <v>1152.53438271227</v>
+        <v>1152.534259851763</v>
       </c>
       <c r="D161" t="n">
-        <v>1134.483914488727</v>
+        <v>1134.483793552406</v>
       </c>
       <c r="E161" t="n">
-        <v>1145.603049920857</v>
+        <v>1145.602927799233</v>
       </c>
       <c r="F161" t="n">
         <v>1213340</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>1140.548828125</v>
+        <v>1140.548950195312</v>
       </c>
       <c r="C162" t="n">
-        <v>1151.667962672968</v>
+        <v>1151.668085933335</v>
       </c>
       <c r="D162" t="n">
-        <v>1138.19028080443</v>
+        <v>1138.190402622312</v>
       </c>
       <c r="E162" t="n">
-        <v>1145.169794629208</v>
+        <v>1145.169917194092</v>
       </c>
       <c r="F162" t="n">
         <v>950013</v>
@@ -3681,16 +3681,16 @@
         <v>45167</v>
       </c>
       <c r="B163" t="n">
-        <v>1153.3046875</v>
+        <v>1153.304565429688</v>
       </c>
       <c r="C163" t="n">
-        <v>1162.835359088567</v>
+        <v>1162.83523600949</v>
       </c>
       <c r="D163" t="n">
-        <v>1143.918443173518</v>
+        <v>1143.918322096683</v>
       </c>
       <c r="E163" t="n">
-        <v>1147.913637338775</v>
+        <v>1147.913515839073</v>
       </c>
       <c r="F163" t="n">
         <v>1419344</v>
@@ -3701,16 +3701,16 @@
         <v>45168</v>
       </c>
       <c r="B164" t="n">
-        <v>1152.534301757812</v>
+        <v>1152.534423828125</v>
       </c>
       <c r="C164" t="n">
-        <v>1176.023999592671</v>
+        <v>1176.024124150888</v>
       </c>
       <c r="D164" t="n">
-        <v>1149.983263107593</v>
+        <v>1149.983384907713</v>
       </c>
       <c r="E164" t="n">
-        <v>1162.883236145731</v>
+        <v>1162.883359312147</v>
       </c>
       <c r="F164" t="n">
         <v>2016339</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>1221.51123046875</v>
+        <v>1221.511352539062</v>
       </c>
       <c r="C172" t="n">
-        <v>1227.431807395873</v>
+        <v>1227.431930057851</v>
       </c>
       <c r="D172" t="n">
-        <v>1216.360853838969</v>
+        <v>1216.360975394584</v>
       </c>
       <c r="E172" t="n">
-        <v>1217.804891259434</v>
+        <v>1217.805012959358</v>
       </c>
       <c r="F172" t="n">
         <v>1293853</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>1218.767700195312</v>
+        <v>1218.767578125</v>
       </c>
       <c r="C173" t="n">
-        <v>1235.903659574158</v>
+        <v>1235.903535787528</v>
       </c>
       <c r="D173" t="n">
-        <v>1204.856852045486</v>
+        <v>1204.856731368467</v>
       </c>
       <c r="E173" t="n">
-        <v>1224.351359098373</v>
+        <v>1224.351236468808</v>
       </c>
       <c r="F173" t="n">
         <v>2335224</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>1213.37646484375</v>
+        <v>1213.376586914062</v>
       </c>
       <c r="C174" t="n">
-        <v>1221.414915860685</v>
+        <v>1221.415038739697</v>
       </c>
       <c r="D174" t="n">
-        <v>1207.118969708306</v>
+        <v>1207.119091149091</v>
       </c>
       <c r="E174" t="n">
-        <v>1213.280219191032</v>
+        <v>1213.280341251662</v>
       </c>
       <c r="F174" t="n">
         <v>1204376</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>1232.100952148438</v>
+        <v>1232.100708007812</v>
       </c>
       <c r="C175" t="n">
-        <v>1241.246523323724</v>
+        <v>1241.246277370906</v>
       </c>
       <c r="D175" t="n">
-        <v>1214.916928759141</v>
+        <v>1214.916688023527</v>
       </c>
       <c r="E175" t="n">
-        <v>1214.916928759141</v>
+        <v>1214.916688023527</v>
       </c>
       <c r="F175" t="n">
         <v>3288631</v>
@@ -3941,16 +3941,16 @@
         <v>45184</v>
       </c>
       <c r="B176" t="n">
-        <v>1251.54736328125</v>
+        <v>1251.547241210938</v>
       </c>
       <c r="C176" t="n">
-        <v>1255.061093893908</v>
+        <v>1255.060971480882</v>
       </c>
       <c r="D176" t="n">
-        <v>1226.469198057091</v>
+        <v>1226.46907843279</v>
       </c>
       <c r="E176" t="n">
-        <v>1230.512456099201</v>
+        <v>1230.512336080539</v>
       </c>
       <c r="F176" t="n">
         <v>4316210</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>1250.969482421875</v>
+        <v>1250.969604492188</v>
       </c>
       <c r="C181" t="n">
-        <v>1265.361791543963</v>
+        <v>1265.361915018686</v>
       </c>
       <c r="D181" t="n">
-        <v>1247.696425178377</v>
+        <v>1247.696546929303</v>
       </c>
       <c r="E181" t="n">
-        <v>1256.649386046389</v>
+        <v>1256.64950867095</v>
       </c>
       <c r="F181" t="n">
         <v>2100302</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>1234.459594726562</v>
+        <v>1234.45947265625</v>
       </c>
       <c r="C182" t="n">
-        <v>1254.435447191035</v>
+        <v>1254.435323145397</v>
       </c>
       <c r="D182" t="n">
-        <v>1231.427092415488</v>
+        <v>1231.426970645046</v>
       </c>
       <c r="E182" t="n">
-        <v>1251.499190545249</v>
+        <v>1251.499066789965</v>
       </c>
       <c r="F182" t="n">
         <v>1141475</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>1240.572509765625</v>
+        <v>1240.572631835938</v>
       </c>
       <c r="C183" t="n">
-        <v>1245.626640486052</v>
+        <v>1245.626763053682</v>
       </c>
       <c r="D183" t="n">
-        <v>1216.842139165553</v>
+        <v>1216.842258900836</v>
       </c>
       <c r="E183" t="n">
-        <v>1222.570106975612</v>
+        <v>1222.570227274518</v>
       </c>
       <c r="F183" t="n">
         <v>1568115</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>1183.629272460938</v>
+        <v>1183.62939453125</v>
       </c>
       <c r="C184" t="n">
-        <v>1226.517228445104</v>
+        <v>1226.517354938547</v>
       </c>
       <c r="D184" t="n">
-        <v>1176.409085764348</v>
+        <v>1176.409207090026</v>
       </c>
       <c r="E184" t="n">
-        <v>1226.517228445104</v>
+        <v>1226.517354938547</v>
       </c>
       <c r="F184" t="n">
         <v>6570797</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>1160.04345703125</v>
+        <v>1160.043334960938</v>
       </c>
       <c r="C187" t="n">
-        <v>1170.151719519904</v>
+        <v>1170.151596385908</v>
       </c>
       <c r="D187" t="n">
-        <v>1141.800496974822</v>
+        <v>1141.8003768242</v>
       </c>
       <c r="E187" t="n">
-        <v>1164.85691535918</v>
+        <v>1164.856792782352</v>
       </c>
       <c r="F187" t="n">
         <v>2340603</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>1167.407958984375</v>
+        <v>1167.408081054688</v>
       </c>
       <c r="C190" t="n">
-        <v>1181.944578227021</v>
+        <v>1181.944701817359</v>
       </c>
       <c r="D190" t="n">
-        <v>1157.299697472354</v>
+        <v>1157.299818485694</v>
       </c>
       <c r="E190" t="n">
-        <v>1158.358634698973</v>
+        <v>1158.35875582304</v>
       </c>
       <c r="F190" t="n">
         <v>1451064</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>1181.944580078125</v>
+        <v>1181.944702148438</v>
       </c>
       <c r="C191" t="n">
-        <v>1185.506491895801</v>
+        <v>1185.506614333985</v>
       </c>
       <c r="D191" t="n">
-        <v>1167.744879360428</v>
+        <v>1167.744999964207</v>
       </c>
       <c r="E191" t="n">
-        <v>1169.862753816982</v>
+        <v>1169.862874639493</v>
       </c>
       <c r="F191" t="n">
         <v>1503359</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>1140.404418945312</v>
+        <v>1140.404541015625</v>
       </c>
       <c r="C195" t="n">
-        <v>1153.545182478427</v>
+        <v>1153.545305955343</v>
       </c>
       <c r="D195" t="n">
-        <v>1136.746261461277</v>
+        <v>1136.746383140016</v>
       </c>
       <c r="E195" t="n">
-        <v>1150.705289331869</v>
+        <v>1150.7054125048</v>
       </c>
       <c r="F195" t="n">
         <v>2638043</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>1152.91943359375</v>
+        <v>1152.919555664062</v>
       </c>
       <c r="C196" t="n">
-        <v>1158.117991723152</v>
+        <v>1158.118114343884</v>
       </c>
       <c r="D196" t="n">
-        <v>1144.11078197394</v>
+        <v>1144.110903111598</v>
       </c>
       <c r="E196" t="n">
-        <v>1145.603000956401</v>
+        <v>1145.603122252055</v>
       </c>
       <c r="F196" t="n">
         <v>1163897</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>1142.811279296875</v>
+        <v>1142.811157226562</v>
       </c>
       <c r="C197" t="n">
-        <v>1157.15540895098</v>
+        <v>1157.155285348487</v>
       </c>
       <c r="D197" t="n">
-        <v>1134.098990030308</v>
+        <v>1134.098868890606</v>
       </c>
       <c r="E197" t="n">
-        <v>1155.230025575022</v>
+        <v>1155.229902178191</v>
       </c>
       <c r="F197" t="n">
         <v>2337078</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>1099.538208007812</v>
+        <v>1099.538330078125</v>
       </c>
       <c r="C201" t="n">
-        <v>1122.402132958112</v>
+        <v>1122.402257566768</v>
       </c>
       <c r="D201" t="n">
-        <v>1094.098977095371</v>
+        <v>1094.099098561822</v>
       </c>
       <c r="E201" t="n">
-        <v>1118.647612305166</v>
+        <v>1118.647736496997</v>
       </c>
       <c r="F201" t="n">
         <v>1555285</v>
@@ -4461,16 +4461,16 @@
         <v>45225</v>
       </c>
       <c r="B202" t="n">
-        <v>1073.834228515625</v>
+        <v>1073.834350585938</v>
       </c>
       <c r="C202" t="n">
-        <v>1078.214522017745</v>
+        <v>1078.214644585996</v>
       </c>
       <c r="D202" t="n">
-        <v>1057.179735426235</v>
+        <v>1057.179855603314</v>
       </c>
       <c r="E202" t="n">
-        <v>1059.008872850726</v>
+        <v>1059.008993235736</v>
       </c>
       <c r="F202" t="n">
         <v>7099401</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>1078.744262695312</v>
+        <v>1078.744140625</v>
       </c>
       <c r="C203" t="n">
-        <v>1083.942704013063</v>
+        <v>1083.942581354496</v>
       </c>
       <c r="D203" t="n">
-        <v>1072.486766464017</v>
+        <v>1072.486645101801</v>
       </c>
       <c r="E203" t="n">
-        <v>1078.166553645714</v>
+        <v>1078.166431640774</v>
       </c>
       <c r="F203" t="n">
         <v>1382498</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>1083.124389648438</v>
+        <v>1083.124267578125</v>
       </c>
       <c r="C206" t="n">
-        <v>1095.543135869328</v>
+        <v>1095.543012399397</v>
       </c>
       <c r="D206" t="n">
-        <v>1078.166503974988</v>
+        <v>1078.166382463439</v>
       </c>
       <c r="E206" t="n">
-        <v>1088.756112493936</v>
+        <v>1088.755989788917</v>
       </c>
       <c r="F206" t="n">
         <v>1288497</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>1118.057495117188</v>
+        <v>1118.0576171875</v>
       </c>
       <c r="C210" t="n">
-        <v>1119.322533704049</v>
+        <v>1119.322655912479</v>
       </c>
       <c r="D210" t="n">
-        <v>1105.942820424796</v>
+        <v>1105.94294117242</v>
       </c>
       <c r="E210" t="n">
-        <v>1111.246004720477</v>
+        <v>1111.246126047106</v>
       </c>
       <c r="F210" t="n">
         <v>902481</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>1174.690185546875</v>
+        <v>1174.690307617188</v>
       </c>
       <c r="C216" t="n">
-        <v>1182.231478875417</v>
+        <v>1182.231601729398</v>
       </c>
       <c r="D216" t="n">
-        <v>1135.962066561696</v>
+        <v>1135.962184607497</v>
       </c>
       <c r="E216" t="n">
-        <v>1143.357375617607</v>
+        <v>1143.357494431907</v>
       </c>
       <c r="F216" t="n">
         <v>2294942</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>1179.16650390625</v>
+        <v>1179.166381835938</v>
       </c>
       <c r="C218" t="n">
-        <v>1189.578307427391</v>
+        <v>1189.578184279222</v>
       </c>
       <c r="D218" t="n">
-        <v>1170.360171172429</v>
+        <v>1170.36005001377</v>
       </c>
       <c r="E218" t="n">
-        <v>1172.452295837793</v>
+        <v>1172.452174462553</v>
       </c>
       <c r="F218" t="n">
         <v>1077366</v>
@@ -4821,16 +4821,16 @@
         <v>45252</v>
       </c>
       <c r="B220" t="n">
-        <v>1182.66943359375</v>
+        <v>1182.669555664062</v>
       </c>
       <c r="C220" t="n">
-        <v>1185.199392119183</v>
+        <v>1185.199514450628</v>
       </c>
       <c r="D220" t="n">
-        <v>1171.576410600572</v>
+        <v>1171.576531525908</v>
       </c>
       <c r="E220" t="n">
-        <v>1172.549480709044</v>
+        <v>1172.549601734817</v>
       </c>
       <c r="F220" t="n">
         <v>750622</v>
@@ -4861,16 +4861,16 @@
         <v>45254</v>
       </c>
       <c r="B222" t="n">
-        <v>1165.591918945312</v>
+        <v>1165.592041015625</v>
       </c>
       <c r="C222" t="n">
-        <v>1182.231392805452</v>
+        <v>1182.231516618386</v>
       </c>
       <c r="D222" t="n">
-        <v>1162.91597634613</v>
+        <v>1162.916098136196</v>
       </c>
       <c r="E222" t="n">
-        <v>1179.409584727231</v>
+        <v>1179.409708244642</v>
       </c>
       <c r="F222" t="n">
         <v>884921</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>1188.7998046875</v>
+        <v>1188.799682617188</v>
       </c>
       <c r="C224" t="n">
-        <v>1201.352433906476</v>
+        <v>1201.352310547213</v>
       </c>
       <c r="D224" t="n">
-        <v>1174.155169584513</v>
+        <v>1174.155049017965</v>
       </c>
       <c r="E224" t="n">
-        <v>1174.495720394726</v>
+        <v>1174.495599793209</v>
       </c>
       <c r="F224" t="n">
         <v>1898448</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>1190.30810546875</v>
+        <v>1190.307983398438</v>
       </c>
       <c r="C230" t="n">
-        <v>1197.849399413065</v>
+        <v>1197.849276569366</v>
       </c>
       <c r="D230" t="n">
-        <v>1187.24291062511</v>
+        <v>1187.242788869144</v>
       </c>
       <c r="E230" t="n">
-        <v>1192.984048481249</v>
+        <v>1192.983926136509</v>
       </c>
       <c r="F230" t="n">
         <v>1076885</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>1193.1298828125</v>
+        <v>1193.130004882812</v>
       </c>
       <c r="C233" t="n">
-        <v>1211.472229763572</v>
+        <v>1211.472353710508</v>
       </c>
       <c r="D233" t="n">
-        <v>1185.831857331997</v>
+        <v>1185.831978655641</v>
       </c>
       <c r="E233" t="n">
-        <v>1204.612038298712</v>
+        <v>1204.612161543775</v>
       </c>
       <c r="F233" t="n">
         <v>1114846</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>1247.475830078125</v>
+        <v>1247.475952148438</v>
       </c>
       <c r="C242" t="n">
-        <v>1254.044053052405</v>
+        <v>1254.044175765444</v>
       </c>
       <c r="D242" t="n">
-        <v>1226.603524584155</v>
+        <v>1226.603644612032</v>
       </c>
       <c r="E242" t="n">
-        <v>1240.664339586279</v>
+        <v>1240.664460990061</v>
       </c>
       <c r="F242" t="n">
         <v>1720830</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>1251.319458007812</v>
+        <v>1251.319580078125</v>
       </c>
       <c r="C244" t="n">
-        <v>1254.287369350729</v>
+        <v>1254.287491710572</v>
       </c>
       <c r="D244" t="n">
-        <v>1236.334273369333</v>
+        <v>1236.334393977791</v>
       </c>
       <c r="E244" t="n">
-        <v>1250.395088918299</v>
+        <v>1250.395210898437</v>
       </c>
       <c r="F244" t="n">
         <v>2284964</v>
